--- a/data/job_applications.xlsx
+++ b/data/job_applications.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K63"/>
+  <dimension ref="A1:K181"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -493,27 +493,27 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-07-30</t>
+          <t>2025-07-31</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Python Developer</t>
+          <t>Junior Full Stack Software Development Engineer (Python) - Evisort</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Infosys</t>
+          <t>Workday</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Remote</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://in.linkedin.com/jobs/view/python-developer-at-infosys-4261269444?position=1&amp;pageNum=0&amp;refId=jDbl%2B7x5TqVK0p81rPEAhQ%3D%3D&amp;trackingId=HJk2H5BXNIzY6FFVWgXBCA%3D%3D</t>
+          <t>https://ie.linkedin.com/jobs/view/junior-full-stack-software-development-engineer-python-evisort-at-workday-4271608414?position=1&amp;pageNum=0&amp;refId=C8ei9z3K2NcRgvhKPrSn9g%3D%3D&amp;trackingId=lSqmUwoB2cSlTuRumB5OAw%3D%3D</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -534,27 +534,27 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-07-30</t>
+          <t>2025-07-31</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Python developer</t>
+          <t>Software Engineer (Python)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Infosys</t>
+          <t>Stripe</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Remote</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://in.linkedin.com/jobs/view/python-developer-at-infosys-4271863142?position=5&amp;pageNum=0&amp;refId=jDbl%2B7x5TqVK0p81rPEAhQ%3D%3D&amp;trackingId=fRHwv89uBfYpP%2F6VPaN9%2FA%3D%3D</t>
+          <t>https://ie.linkedin.com/jobs/view/software-engineer-python-at-stripe-4252530713?position=2&amp;pageNum=0&amp;refId=C8ei9z3K2NcRgvhKPrSn9g%3D%3D&amp;trackingId=q06ISSXQASNl3zowL6WuWg%3D%3D</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -575,27 +575,27 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-07-30</t>
+          <t>2025-07-31</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Python Developer</t>
+          <t>Graduate Software Engineer (Python)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Persistent Systems</t>
+          <t>Fenergo</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Remote</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>https://in.linkedin.com/jobs/view/python-developer-at-persistent-systems-4217499837?position=9&amp;pageNum=0&amp;refId=jDbl%2B7x5TqVK0p81rPEAhQ%3D%3D&amp;trackingId=z11OO3iDRPxslizuj21OmQ%3D%3D</t>
+          <t>https://ie.linkedin.com/jobs/view/graduate-software-engineer-python-at-fenergo-4261027266?position=3&amp;pageNum=0&amp;refId=C8ei9z3K2NcRgvhKPrSn9g%3D%3D&amp;trackingId=X8eiQJVjTCpTO3fkK1mmbA%3D%3D</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -616,27 +616,27 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-07-30</t>
+          <t>2025-07-31</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Python Developer</t>
+          <t>Graduate Software Engineer (Python)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Infosys Finacle</t>
+          <t>emagine</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Remote</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>https://in.linkedin.com/jobs/view/python-developer-at-infosys-finacle-4262381078?position=12&amp;pageNum=0&amp;refId=jDbl%2B7x5TqVK0p81rPEAhQ%3D%3D&amp;trackingId=PcmzmFMdyRiek5711tyANg%3D%3D</t>
+          <t>https://ie.linkedin.com/jobs/view/graduate-software-engineer-python-at-emagine-4270278497?position=4&amp;pageNum=0&amp;refId=C8ei9z3K2NcRgvhKPrSn9g%3D%3D&amp;trackingId=hD%2F2hBZobDaKJQy%2FKGte1w%3D%3D</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -657,27 +657,27 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-07-30</t>
+          <t>2025-07-31</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Python , Django Developer</t>
+          <t>Python Developer</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Infosys</t>
+          <t>Brightwater Recruitment</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Remote</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>https://in.linkedin.com/jobs/view/python-django-developer-at-infosys-4258336247?position=13&amp;pageNum=0&amp;refId=jDbl%2B7x5TqVK0p81rPEAhQ%3D%3D&amp;trackingId=xnbOT2luv%2FpXrEZem1cAlw%3D%3D</t>
+          <t>https://ie.linkedin.com/jobs/view/python-developer-at-brightwater-recruitment-4264593386?position=5&amp;pageNum=0&amp;refId=C8ei9z3K2NcRgvhKPrSn9g%3D%3D&amp;trackingId=CR630RQnZMafPBszUGCrYA%3D%3D</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -698,7 +698,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-07-30</t>
+          <t>2025-07-31</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -708,17 +708,17 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>MakeMyTrip</t>
+          <t>Xtremepush</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Remote</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>https://in.linkedin.com/jobs/view/python-developer-at-makemytrip-4277625906?position=14&amp;pageNum=0&amp;refId=jDbl%2B7x5TqVK0p81rPEAhQ%3D%3D&amp;trackingId=9Mg4M7TbjHgtmyG8HjG74g%3D%3D</t>
+          <t>https://ie.linkedin.com/jobs/view/python-developer-at-xtremepush-4260383906?position=6&amp;pageNum=0&amp;refId=C8ei9z3K2NcRgvhKPrSn9g%3D%3D&amp;trackingId=OLrHdKnRUMOdVKXkIcnIkg%3D%3D</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -739,7 +739,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025-07-30</t>
+          <t>2025-07-31</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -749,17 +749,17 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[x]cube LABS</t>
+          <t>IT Search</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Remote</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>https://in.linkedin.com/jobs/view/python-developer-at-x-cube-labs-3627613378?position=16&amp;pageNum=0&amp;refId=jDbl%2B7x5TqVK0p81rPEAhQ%3D%3D&amp;trackingId=4T%2BxNBn%2BFXjD47AegR1vwQ%3D%3D</t>
+          <t>https://ie.linkedin.com/jobs/view/python-developer-at-it-search-4261711656?position=8&amp;pageNum=0&amp;refId=C8ei9z3K2NcRgvhKPrSn9g%3D%3D&amp;trackingId=v5OF2Ha32TTvPgb2k%2Bc7EQ%3D%3D</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -780,7 +780,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2025-07-30</t>
+          <t>2025-07-31</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -790,17 +790,17 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Jo Academy</t>
+          <t>Scurri</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Remote</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>https://jo.linkedin.com/jobs/view/python-developer-at-jo-academy-4259837549?position=17&amp;pageNum=0&amp;refId=jDbl%2B7x5TqVK0p81rPEAhQ%3D%3D&amp;trackingId=xgnXKZPdocn5nto3T8Ws1g%3D%3D</t>
+          <t>https://ie.linkedin.com/jobs/view/python-developer-at-scurri-4260055822?position=9&amp;pageNum=0&amp;refId=C8ei9z3K2NcRgvhKPrSn9g%3D%3D&amp;trackingId=N%2FJZMi0F4eWo1m%2Bcpi1iNQ%3D%3D</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -821,27 +821,27 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2025-07-30</t>
+          <t>2025-07-31</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Graduate Python Software Engineer</t>
+          <t>Python Developer</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Bolt6</t>
+          <t>Thomson Keene</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Remote</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>https://uk.linkedin.com/jobs/view/graduate-python-software-engineer-at-bolt6-4273013397?position=18&amp;pageNum=0&amp;refId=jDbl%2B7x5TqVK0p81rPEAhQ%3D%3D&amp;trackingId=yAdrWQJ0xMSf4TMUqKyMjQ%3D%3D</t>
+          <t>https://ie.linkedin.com/jobs/view/python-developer-at-thomson-keene-4267755733?position=10&amp;pageNum=0&amp;refId=C8ei9z3K2NcRgvhKPrSn9g%3D%3D&amp;trackingId=Th1qEGV7NqbFPCreCJyBrg%3D%3D</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -862,7 +862,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2025-07-30</t>
+          <t>2025-07-31</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -872,17 +872,17 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Lenovo</t>
+          <t>mthree</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Remote</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>https://my.linkedin.com/jobs/view/python-developer-at-lenovo-4271548721?position=19&amp;pageNum=0&amp;refId=jDbl%2B7x5TqVK0p81rPEAhQ%3D%3D&amp;trackingId=wEZ38ggO0ZKfLajb%2BYEauw%3D%3D</t>
+          <t>https://ie.linkedin.com/jobs/view/python-developer-at-mthree-4249936419?position=11&amp;pageNum=0&amp;refId=C8ei9z3K2NcRgvhKPrSn9g%3D%3D&amp;trackingId=%2BAqgU3BawWvZL1fl0OSW9g%3D%3D</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -903,27 +903,27 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2025-07-30</t>
+          <t>2025-07-31</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Python Developer</t>
+          <t>Python Developer - Ireland</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>ITC Infotech</t>
+          <t>Solas IT Recruitment</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Remote</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>https://in.linkedin.com/jobs/view/python-developer-at-itc-infotech-4267350926?position=20&amp;pageNum=0&amp;refId=jDbl%2B7x5TqVK0p81rPEAhQ%3D%3D&amp;trackingId=Y8QuESRGJCKkTB5XKoarpQ%3D%3D</t>
+          <t>https://ie.linkedin.com/jobs/view/python-developer-ireland-at-solas-it-recruitment-4182946624?position=12&amp;pageNum=0&amp;refId=C8ei9z3K2NcRgvhKPrSn9g%3D%3D&amp;trackingId=gFdDYJBSElD9OqnHmxr%2BrQ%3D%3D</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -944,27 +944,27 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2025-07-30</t>
+          <t>2025-07-31</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Machine Learning Intern, Fall 2025</t>
+          <t>PYTHON DEVELOPER WITH AI/ML</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Netflix</t>
+          <t>Svitla Systems, Inc.</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Remote</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/machine-learning-intern-fall-2025-at-netflix-4212084336?position=1&amp;pageNum=0&amp;refId=eA6%2BDGrQEHcTks8QHTW1Eg%3D%3D&amp;trackingId=8kT84dN85bpl53RGR3JdyQ%3D%3D</t>
+          <t>https://ie.linkedin.com/jobs/view/python-developer-with-ai-ml-at-svitla-systems-inc-4261607612?position=13&amp;pageNum=0&amp;refId=C8ei9z3K2NcRgvhKPrSn9g%3D%3D&amp;trackingId=8TyuE8YrOCb0FOHvW%2ByVWQ%3D%3D</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -985,27 +985,27 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2025-07-30</t>
+          <t>2025-07-31</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2025 ML/AI Engineer Internship – Long/Short Equities</t>
+          <t>Python Developer</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Point72</t>
+          <t>Fruition Group Ireland</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Remote</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>https://uk.linkedin.com/jobs/view/2025-ml-ai-engineer-internship-%E2%80%93-long-short-equities-at-point72-4132531856?position=2&amp;pageNum=0&amp;refId=eA6%2BDGrQEHcTks8QHTW1Eg%3D%3D&amp;trackingId=aoxeimDr1spEio4JbRA0Lw%3D%3D</t>
+          <t>https://ie.linkedin.com/jobs/view/python-developer-at-fruition-group-ireland-4275935993?position=14&amp;pageNum=0&amp;refId=C8ei9z3K2NcRgvhKPrSn9g%3D%3D&amp;trackingId=tXl1Li1F96d%2BTZstrDmXpQ%3D%3D</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1026,27 +1026,27 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2025-07-30</t>
+          <t>2025-07-31</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Artificial Intelligence (AI) Internship in Bangalore</t>
+          <t>Python Engineer - SRE Core Team</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Cygnus Voyages Private Limited</t>
+          <t>JPMorganChase</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Remote</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>https://in.linkedin.com/jobs/view/artificial-intelligence-ai-internship-in-bangalore-at-cygnus-voyages-private-limited-4272395898?position=3&amp;pageNum=0&amp;refId=eA6%2BDGrQEHcTks8QHTW1Eg%3D%3D&amp;trackingId=GukAZx1cRVS%2B%2BTBRUFtdVg%3D%3D</t>
+          <t>https://ie.linkedin.com/jobs/view/python-engineer-sre-core-team-at-jpmorganchase-4267268843?position=15&amp;pageNum=0&amp;refId=C8ei9z3K2NcRgvhKPrSn9g%3D%3D&amp;trackingId=dZHL916FX%2FM%2BGLgq7ODxDQ%3D%3D</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1067,27 +1067,27 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2025-07-30</t>
+          <t>2025-07-31</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Data Science Internship</t>
+          <t>Python Developer - Contract Positions</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>SkillLab</t>
+          <t>Stelfox Tech Recruitment</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Remote</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>https://nl.linkedin.com/jobs/view/data-science-internship-at-skilllab-4267064220?position=4&amp;pageNum=0&amp;refId=eA6%2BDGrQEHcTks8QHTW1Eg%3D%3D&amp;trackingId=89%2FSNo7QkinLiXMh9wlsGQ%3D%3D</t>
+          <t>https://ie.linkedin.com/jobs/view/python-developer-contract-positions-at-stelfox-tech-recruitment-4267254958?position=16&amp;pageNum=0&amp;refId=C8ei9z3K2NcRgvhKPrSn9g%3D%3D&amp;trackingId=5TgnHqJY7jIK%2FmIdeV4BIg%3D%3D</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1108,27 +1108,27 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2025-07-30</t>
+          <t>2025-07-31</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>AI Research - 3 Month Internship</t>
+          <t>Python Developer</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Samsung Electronics</t>
+          <t>Scorebuddy</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Remote</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>https://uk.linkedin.com/jobs/view/ai-research-3-month-internship-at-samsung-electronics-4258840771?position=5&amp;pageNum=0&amp;refId=eA6%2BDGrQEHcTks8QHTW1Eg%3D%3D&amp;trackingId=AiTMqOxpnAAZxmWwwQqvLw%3D%3D</t>
+          <t>https://ie.linkedin.com/jobs/view/python-developer-at-scorebuddy-4274197123?position=17&amp;pageNum=0&amp;refId=C8ei9z3K2NcRgvhKPrSn9g%3D%3D&amp;trackingId=FGKHe11tNkKAaJOSO60d%2Bg%3D%3D</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1149,27 +1149,27 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2025-07-30</t>
+          <t>2025-07-31</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Python Development (AI Focus) Internship in Navi Mumbai</t>
+          <t>Software Engineer, Python (AI)</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Bizlem Private Limited</t>
+          <t>Telnyx</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Remote</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>https://in.linkedin.com/jobs/view/python-development-ai-focus-internship-in-navi-mumbai-at-bizlem-private-limited-4244936734?position=6&amp;pageNum=0&amp;refId=eA6%2BDGrQEHcTks8QHTW1Eg%3D%3D&amp;trackingId=XnIw%2FLSZmTU4d3GCI0Qaeg%3D%3D</t>
+          <t>https://ie.linkedin.com/jobs/view/software-engineer-python-ai-at-telnyx-4266796694?position=18&amp;pageNum=0&amp;refId=C8ei9z3K2NcRgvhKPrSn9g%3D%3D&amp;trackingId=Zvlpe1JNvPaIoHQQHPQBcw%3D%3D</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1190,27 +1190,27 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2025-07-30</t>
+          <t>2025-07-31</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>AI Internship</t>
+          <t>Python Software Engineer</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>AryaXAI</t>
+          <t>PTR Global</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Remote</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>https://in.linkedin.com/jobs/view/ai-internship-at-aryaxai-4269574337?position=7&amp;pageNum=0&amp;refId=eA6%2BDGrQEHcTks8QHTW1Eg%3D%3D&amp;trackingId=GGTgbNjUswbZsDwCLVq2kQ%3D%3D</t>
+          <t>https://ie.linkedin.com/jobs/view/python-software-engineer-at-ptr-global-4258205654?position=22&amp;pageNum=0&amp;refId=C8ei9z3K2NcRgvhKPrSn9g%3D%3D&amp;trackingId=5l7aUoYb9lzZLquCxl%2FftA%3D%3D</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1231,27 +1231,27 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2025-07-30</t>
+          <t>2025-07-31</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>AI Engineer Intern</t>
+          <t>Freelance Software Developer (Python Engineer) - AI Trainer</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Discover Dollar Inc</t>
+          <t>Mindrift</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Remote</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>https://in.linkedin.com/jobs/view/ai-engineer-intern-at-discover-dollar-inc-4256769624?position=8&amp;pageNum=0&amp;refId=eA6%2BDGrQEHcTks8QHTW1Eg%3D%3D&amp;trackingId=9RHoWCS4tp%2BA%2F2%2Bk%2BfIgpA%3D%3D</t>
+          <t>https://ie.linkedin.com/jobs/view/freelance-software-developer-python-engineer-ai-trainer-at-mindrift-4274570910?position=23&amp;pageNum=0&amp;refId=C8ei9z3K2NcRgvhKPrSn9g%3D%3D&amp;trackingId=MXnmpn7V%2BFsza45052G7jw%3D%3D</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1272,27 +1272,27 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2025-07-30</t>
+          <t>2025-07-31</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Graduate Intern, Data Scientist (Spring, 2025)</t>
+          <t>Quantitative Python Developer | Options | Experienced Hire</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Delta Air Lines</t>
+          <t>Susquehanna International Group</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Remote</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/graduate-intern-data-scientist-spring-2025-at-delta-air-lines-4008676213?position=9&amp;pageNum=0&amp;refId=eA6%2BDGrQEHcTks8QHTW1Eg%3D%3D&amp;trackingId=oUpJoOWyzHrfo3wl%2F%2BvyyA%3D%3D</t>
+          <t>https://ie.linkedin.com/jobs/view/quantitative-python-developer-options-experienced-hire-at-susquehanna-international-group-4144925157?position=24&amp;pageNum=0&amp;refId=C8ei9z3K2NcRgvhKPrSn9g%3D%3D&amp;trackingId=jIpkjD6b7d3ixyKMxagFyg%3D%3D</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1313,27 +1313,27 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2025-07-30</t>
+          <t>2025-07-31</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Artificial Intelligence Intern - ( AI Intern )</t>
+          <t>Backend Software Engineer</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>NewGen Innovation : AI &amp; Design Thinking</t>
+          <t>CalypsoAI</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Remote</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>https://in.linkedin.com/jobs/view/artificial-intelligence-intern-ai-intern-at-newgen-innovation-ai-design-thinking-4272885142?position=10&amp;pageNum=0&amp;refId=eA6%2BDGrQEHcTks8QHTW1Eg%3D%3D&amp;trackingId=a5EHgLkxwrb3X63yVBmXGg%3D%3D</t>
+          <t>https://ie.linkedin.com/jobs/view/backend-software-engineer-at-calypsoai-4233662052?position=25&amp;pageNum=0&amp;refId=C8ei9z3K2NcRgvhKPrSn9g%3D%3D&amp;trackingId=yyvi853wIIAysXKNyTyBhg%3D%3D</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1354,27 +1354,27 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2025-07-30</t>
+          <t>2025-07-31</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>AI Engineer Intern Internship in Bangalore (Hybrid)</t>
+          <t>Full Stack Python Developer</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>IceCreamLabs</t>
+          <t>Fruition Group Ireland</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Remote</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>https://in.linkedin.com/jobs/view/ai-engineer-intern-internship-in-bangalore-hybrid-at-icecreamlabs-4265910322?position=11&amp;pageNum=0&amp;refId=eA6%2BDGrQEHcTks8QHTW1Eg%3D%3D&amp;trackingId=VpL9rT2%2FrQKPe0y%2Bwkqzew%3D%3D</t>
+          <t>https://ie.linkedin.com/jobs/view/full-stack-python-developer-at-fruition-group-ireland-4275926222?position=27&amp;pageNum=0&amp;refId=C8ei9z3K2NcRgvhKPrSn9g%3D%3D&amp;trackingId=djgtIroIefqUV0MrmdEgoA%3D%3D</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1395,27 +1395,27 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2025-07-30</t>
+          <t>2025-07-31</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Research Internship (Fall 2025)</t>
+          <t>Full Stack AI Engineer</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Cohere</t>
+          <t>nineDots.io</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Remote</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>https://uk.linkedin.com/jobs/view/research-internship-fall-2025-at-cohere-4259935527?position=12&amp;pageNum=0&amp;refId=eA6%2BDGrQEHcTks8QHTW1Eg%3D%3D&amp;trackingId=kE%2Bomj9TgBRmHMTeK7rDeg%3D%3D</t>
+          <t>https://ie.linkedin.com/jobs/view/full-stack-ai-engineer-at-ninedots-io-4268360600?position=31&amp;pageNum=0&amp;refId=C8ei9z3K2NcRgvhKPrSn9g%3D%3D&amp;trackingId=ilZVdFgTm6xBN%2FENGvHvFg%3D%3D</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1436,27 +1436,27 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2025-07-30</t>
+          <t>2025-07-31</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>AI - Research Intern</t>
+          <t>Software Engineer (Intern)</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Curai Health</t>
+          <t>Naptha AI</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Remote</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/ai-research-intern-at-curai-health-3862136329?position=13&amp;pageNum=0&amp;refId=eA6%2BDGrQEHcTks8QHTW1Eg%3D%3D&amp;trackingId=0x4KXHVEY0bAca2xQwuqRg%3D%3D</t>
+          <t>https://ie.linkedin.com/jobs/view/software-engineer-intern-at-naptha-ai-4151323166?position=33&amp;pageNum=0&amp;refId=C8ei9z3K2NcRgvhKPrSn9g%3D%3D&amp;trackingId=3mJ1lpyA93RcYjBBogBFhg%3D%3D</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1477,27 +1477,27 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2025-07-30</t>
+          <t>2025-07-31</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>AI ML engineer Intern</t>
+          <t>Backend Engineer</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Sanctity AI</t>
+          <t>Kitman Labs</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Remote</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>https://in.linkedin.com/jobs/view/ai-ml-engineer-intern-at-sanctity-ai-4275609547?position=14&amp;pageNum=0&amp;refId=eA6%2BDGrQEHcTks8QHTW1Eg%3D%3D&amp;trackingId=BcA4jEkXJQ3ahQJ%2F3nN00A%3D%3D</t>
+          <t>https://ie.linkedin.com/jobs/view/backend-engineer-at-kitman-labs-4042355813?position=34&amp;pageNum=0&amp;refId=C8ei9z3K2NcRgvhKPrSn9g%3D%3D&amp;trackingId=%2Bvjq6q5%2F3Hk47rhUZiAvKA%3D%3D</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -1518,27 +1518,27 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2025-07-30</t>
+          <t>2025-07-31</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Artificial Intelligence (AI) Internship in Noida</t>
+          <t>Python Developer - Dash / UX / Visualisation</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>EVA2Z Electric</t>
+          <t>IT Search</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Remote</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>https://in.linkedin.com/jobs/view/artificial-intelligence-ai-internship-in-noida-at-eva2z-electric-4265910324?position=15&amp;pageNum=0&amp;refId=eA6%2BDGrQEHcTks8QHTW1Eg%3D%3D&amp;trackingId=Wdt8xfGyt1OoJiWMbl67zw%3D%3D</t>
+          <t>https://ie.linkedin.com/jobs/view/python-developer-dash-ux-visualisation-at-it-search-4278040901?position=35&amp;pageNum=0&amp;refId=C8ei9z3K2NcRgvhKPrSn9g%3D%3D&amp;trackingId=yDCspsRe4Chdu1gFPESQIg%3D%3D</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -1559,27 +1559,27 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2025-07-30</t>
+          <t>2025-07-31</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Internship - Seeking Full Stack ML Engineer/Python &amp; Flask Web Developer Intern that prioritizes work/life balance</t>
+          <t>Python Infrastructure Developer</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Dendrite.ai</t>
+          <t>Millennium</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Remote</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>https://in.linkedin.com/jobs/view/internship-seeking-full-stack-ml-engineer-python-flask-web-developer-intern-that-prioritizes-work-life-balance-at-dendrite-ai-4267198555?position=16&amp;pageNum=0&amp;refId=eA6%2BDGrQEHcTks8QHTW1Eg%3D%3D&amp;trackingId=D3dOulROSsQDZnqizw%2Fayg%3D%3D</t>
+          <t>https://ie.linkedin.com/jobs/view/python-infrastructure-developer-at-millennium-4131895883?position=36&amp;pageNum=0&amp;refId=C8ei9z3K2NcRgvhKPrSn9g%3D%3D&amp;trackingId=FbH%2FHdL5AgNgh8Sf%2B5QnHA%3D%3D</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -1600,27 +1600,27 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2025-07-30</t>
+          <t>2025-07-31</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Software Engineer (Intern)</t>
+          <t>Junior Full Stack Developer</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Naptha AI</t>
+          <t>Recruitroo</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Remote</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/software-engineer-intern-at-naptha-ai-4151321450?position=17&amp;pageNum=0&amp;refId=eA6%2BDGrQEHcTks8QHTW1Eg%3D%3D&amp;trackingId=d04tS2uVqMCH68Yr9PdQkw%3D%3D</t>
+          <t>https://ie.linkedin.com/jobs/view/junior-full-stack-developer-at-recruitroo-4266675451?position=40&amp;pageNum=0&amp;refId=C8ei9z3K2NcRgvhKPrSn9g%3D%3D&amp;trackingId=DKbEpJHZ%2FAJh5H0dyHJNuA%3D%3D</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -1641,27 +1641,27 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2025-07-30</t>
+          <t>2025-07-31</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Python Development Internship in Coimbatore</t>
+          <t>Backend Software Engineer (f/m/x)</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>SMC Trades Private Limited</t>
+          <t>Yassir</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Remote</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>https://in.linkedin.com/jobs/view/python-development-internship-in-coimbatore-at-smc-trades-private-limited-4261610742?position=18&amp;pageNum=0&amp;refId=eA6%2BDGrQEHcTks8QHTW1Eg%3D%3D&amp;trackingId=mFGw5dRE5ZQRiXHmfYlNHw%3D%3D</t>
+          <t>https://ie.linkedin.com/jobs/view/backend-software-engineer-f-m-x-at-yassir-3318543223?position=41&amp;pageNum=0&amp;refId=C8ei9z3K2NcRgvhKPrSn9g%3D%3D&amp;trackingId=1j8bzqu4CcPt7axxpTJGUQ%3D%3D</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -1682,27 +1682,27 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2025-07-30</t>
+          <t>2025-07-31</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Entry Level Data Scientist</t>
+          <t>Trading Systems Developer (Python &amp; Quant) - €180,000</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>TensorOps</t>
+          <t>Engage People Recruitment</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Remote</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>https://pt.linkedin.com/jobs/view/entry-level-data-scientist-at-tensorops-4277292314?position=1&amp;pageNum=0&amp;refId=RaKvChwJ8o7QQaLViYrf%2Bg%3D%3D&amp;trackingId=b6QiKXqx99aVzNSEg5%2FevQ%3D%3D</t>
+          <t>https://ie.linkedin.com/jobs/view/trading-systems-developer-python-quant-%E2%82%AC180-000-at-engage-people-recruitment-4259467113?position=44&amp;pageNum=0&amp;refId=C8ei9z3K2NcRgvhKPrSn9g%3D%3D&amp;trackingId=5V0DmNon5D4krkzKWttNCg%3D%3D</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -1723,27 +1723,27 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2025-07-30</t>
+          <t>2025-07-31</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Data Scientist</t>
+          <t>Full Stack Engineer</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>LTIMindtree</t>
+          <t>AQMetrics</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Remote</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>https://in.linkedin.com/jobs/view/data-scientist-at-ltimindtree-4273716987?position=2&amp;pageNum=0&amp;refId=RaKvChwJ8o7QQaLViYrf%2Bg%3D%3D&amp;trackingId=KBoaEfsAzsoKJ9g6mcqPWQ%3D%3D</t>
+          <t>https://ie.linkedin.com/jobs/view/full-stack-engineer-at-aqmetrics-4255133535?position=45&amp;pageNum=0&amp;refId=C8ei9z3K2NcRgvhKPrSn9g%3D%3D&amp;trackingId=xqe2ZI1ixS5jGH42fqF6Sg%3D%3D</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -1764,27 +1764,27 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2025-07-30</t>
+          <t>2025-07-31</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Data Scientists</t>
+          <t>Full Stack Software Development Engineer (Python) - Evisort</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Largeton Group</t>
+          <t>Workday</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Remote</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/data-scientists%C2%A0-at-largeton-group-4277845775?position=4&amp;pageNum=0&amp;refId=RaKvChwJ8o7QQaLViYrf%2Bg%3D%3D&amp;trackingId=l%2BflVUStzY1J7DzCueRuzA%3D%3D</t>
+          <t>https://ie.linkedin.com/jobs/view/full-stack-software-development-engineer-python-evisort-at-workday-4271611050?position=47&amp;pageNum=0&amp;refId=C8ei9z3K2NcRgvhKPrSn9g%3D%3D&amp;trackingId=8%2FKmPr5BjFFeqZ9i7X0Uiw%3D%3D</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -1805,27 +1805,27 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2025-07-30</t>
+          <t>2025-07-31</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Data Scientist</t>
+          <t>Software Engineer - Python - Ubuntu Pro client - graduate level</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>NielsenIQ</t>
+          <t>Canonical</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Remote</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>https://in.linkedin.com/jobs/view/data-scientist-at-nielseniq-4274094794?position=5&amp;pageNum=0&amp;refId=RaKvChwJ8o7QQaLViYrf%2Bg%3D%3D&amp;trackingId=GDf18lTHxVNVxzF4xWUUGA%3D%3D</t>
+          <t>https://ie.linkedin.com/jobs/view/software-engineer-python-ubuntu-pro-client-graduate-level-at-canonical-4233273354?position=51&amp;pageNum=0&amp;refId=C8ei9z3K2NcRgvhKPrSn9g%3D%3D&amp;trackingId=1HSHLdETbFwDx5ovAf9DpQ%3D%3D</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -1846,27 +1846,27 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2025-07-30</t>
+          <t>2025-07-31</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Científico de Datos JR</t>
+          <t>Infrastructure Developer (Python)</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Habi</t>
+          <t>IT Search</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Remote</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>https://co.linkedin.com/jobs/view/cient%C3%ADfico-de-datos-jr-at-habi-4277870563?position=6&amp;pageNum=0&amp;refId=RaKvChwJ8o7QQaLViYrf%2Bg%3D%3D&amp;trackingId=N2BH4D4tjPi%2B0iv%2B6tuOdw%3D%3D</t>
+          <t>https://ie.linkedin.com/jobs/view/infrastructure-developer-python-at-it-search-4278075320?position=52&amp;pageNum=0&amp;refId=C8ei9z3K2NcRgvhKPrSn9g%3D%3D&amp;trackingId=N7AcGoer%2BeQ7gZyu4x7gqw%3D%3D</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -1887,27 +1887,27 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2025-07-30</t>
+          <t>2025-07-31</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Internship: Data Science</t>
+          <t>Python Infrastructure Developer - Network Automation</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Council for Scientific and Industrial Research (CSIR)</t>
+          <t>Millennium</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Remote</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>https://za.linkedin.com/jobs/view/internship-data-science-at-council-for-scientific-and-industrial-research-csir-4277872728?position=8&amp;pageNum=0&amp;refId=RaKvChwJ8o7QQaLViYrf%2Bg%3D%3D&amp;trackingId=K2%2BA7ZDbNxWbiPsrfBWVYA%3D%3D</t>
+          <t>https://ie.linkedin.com/jobs/view/python-infrastructure-developer-network-automation-at-millennium-4222877401?position=55&amp;pageNum=0&amp;refId=C8ei9z3K2NcRgvhKPrSn9g%3D%3D&amp;trackingId=Yw8zHG5e09wS%2BGbjB94VRw%3D%3D</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -1928,27 +1928,27 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2025-07-30</t>
+          <t>2025-07-31</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Data Scientist</t>
+          <t>Analytics Engineer (Python Automation)</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>L.E.K. Consulting</t>
+          <t>Trulioo</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Remote</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/data-scientist-at-l-e-k-consulting-4274083419?position=9&amp;pageNum=0&amp;refId=RaKvChwJ8o7QQaLViYrf%2Bg%3D%3D&amp;trackingId=AzDheYUbFd3H1EwBSc2cMw%3D%3D</t>
+          <t>https://ie.linkedin.com/jobs/view/analytics-engineer-python-automation-at-trulioo-4248389179?position=57&amp;pageNum=0&amp;refId=C8ei9z3K2NcRgvhKPrSn9g%3D%3D&amp;trackingId=MRzBywWie%2ByF7TPRkmpk2g%3D%3D</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -1969,27 +1969,27 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2025-07-30</t>
+          <t>2025-07-31</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Data Scientist, Remote</t>
+          <t>Python and Kubernetes Software Engineer - Data, AI/ML &amp; Analytics</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Aperia Technologies</t>
+          <t>Canonical</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Remote</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/data-scientist-remote-at-aperia-technologies-4277893208?position=10&amp;pageNum=0&amp;refId=RaKvChwJ8o7QQaLViYrf%2Bg%3D%3D&amp;trackingId=oWt9WUQ%2FIU7fO59KE9c7WA%3D%3D</t>
+          <t>https://ie.linkedin.com/jobs/view/python-and-kubernetes-software-engineer-data-ai-ml-analytics-at-canonical-4148912457?position=58&amp;pageNum=0&amp;refId=C8ei9z3K2NcRgvhKPrSn9g%3D%3D&amp;trackingId=UtYoGVoQHZ5TXL3udFBriQ%3D%3D</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -2010,27 +2010,27 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2025-07-30</t>
+          <t>2025-07-31</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Data Scientist, Research</t>
+          <t>Back End Developer</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Dstillery</t>
+          <t>Xcede</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Remote</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/data-scientist-research-at-dstillery-4277209603?position=11&amp;pageNum=0&amp;refId=RaKvChwJ8o7QQaLViYrf%2Bg%3D%3D&amp;trackingId=qx6jAGnQmtHxME8AywrIFQ%3D%3D</t>
+          <t>https://ie.linkedin.com/jobs/view/back-end-developer-at-xcede-4264624184?position=59&amp;pageNum=0&amp;refId=C8ei9z3K2NcRgvhKPrSn9g%3D%3D&amp;trackingId=dh7uhaODomvLaaBo6%2F8TJg%3D%3D</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -2051,27 +2051,27 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2025-07-30</t>
+          <t>2025-07-31</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Junior Data Scientist Apprentice</t>
+          <t>Junior Software Developer - Observability</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Lensa</t>
+          <t>Canonical</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Remote</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/junior-data-scientist-apprentice-at-lensa-4272853302?position=12&amp;pageNum=0&amp;refId=RaKvChwJ8o7QQaLViYrf%2Bg%3D%3D&amp;trackingId=%2BrcvAayrlvOGrofgpm1eBA%3D%3D</t>
+          <t>https://ie.linkedin.com/jobs/view/junior-software-developer-observability-at-canonical-4170103977?position=60&amp;pageNum=0&amp;refId=C8ei9z3K2NcRgvhKPrSn9g%3D%3D&amp;trackingId=rimYPW0%2F8Vg20NUyHT%2F6cg%3D%3D</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -2092,27 +2092,27 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2025-07-30</t>
+          <t>2025-07-31</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Junior Data Scientist</t>
+          <t>Machine Learning Engineer</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Lensa</t>
+          <t>CarTrawler</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Remote</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/junior-data-scientist-at-lensa-4272858123?position=13&amp;pageNum=0&amp;refId=RaKvChwJ8o7QQaLViYrf%2Bg%3D%3D&amp;trackingId=HSj7uoeZDhXHYHQunpBirw%3D%3D</t>
+          <t>https://ie.linkedin.com/jobs/view/machine-learning-engineer-at-cartrawler-4269863209?position=1&amp;pageNum=0&amp;refId=WPjE4SscSp%2BZIJe4Jx9wnw%3D%3D&amp;trackingId=x7kCKKbdYVx6ZEMboueRvw%3D%3D</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -2133,27 +2133,27 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2025-07-30</t>
+          <t>2025-07-31</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Data Scientists</t>
+          <t>Data Scientist</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Virtusa</t>
+          <t>CalypsoAI</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Remote</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>https://qa.linkedin.com/jobs/view/data-scientists-at-virtusa-4271742289?position=14&amp;pageNum=0&amp;refId=RaKvChwJ8o7QQaLViYrf%2Bg%3D%3D&amp;trackingId=gWtKaPQgTyy90XVl1gZJiA%3D%3D</t>
+          <t>https://ie.linkedin.com/jobs/view/data-scientist-at-calypsoai-4210651756?position=2&amp;pageNum=0&amp;refId=WPjE4SscSp%2BZIJe4Jx9wnw%3D%3D&amp;trackingId=WcqZTKZlK7n1pEiybC88cg%3D%3D</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -2174,27 +2174,27 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2025-07-30</t>
+          <t>2025-07-31</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>AI项目线上实习讲师</t>
+          <t>Machine Learning Engineer (100% remote)</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>万能班长Classbro</t>
+          <t>Tether.io</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Remote</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>https://cn.linkedin.com/jobs/view/ai%E9%A1%B9%E7%9B%AE%E7%BA%BF%E4%B8%8A%E5%AE%9E%E4%B9%A0%E8%AE%B2%E5%B8%88-at-%E4%B8%87%E8%83%BD%E7%8F%AD%E9%95%BFclassbro-4277603834?position=15&amp;pageNum=0&amp;refId=RaKvChwJ8o7QQaLViYrf%2Bg%3D%3D&amp;trackingId=sNNXQnQxHo2nl2VmJaWirQ%3D%3D</t>
+          <t>https://ie.linkedin.com/jobs/view/machine-learning-engineer-100%25-remote-at-tether-io-4275577409?position=3&amp;pageNum=0&amp;refId=WPjE4SscSp%2BZIJe4Jx9wnw%3D%3D&amp;trackingId=37BQFvvaaRuTu8somT5few%3D%3D</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -2215,27 +2215,27 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2025-07-30</t>
+          <t>2025-07-31</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Data Scientist</t>
+          <t>Junior AI Data Scientist</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Prescient AI</t>
+          <t>Equifax</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Remote</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/data-scientist-at-prescient-ai-4273795351?position=16&amp;pageNum=0&amp;refId=RaKvChwJ8o7QQaLViYrf%2Bg%3D%3D&amp;trackingId=zWxXLTes8l7LELlH1Hvt6w%3D%3D</t>
+          <t>https://ie.linkedin.com/jobs/view/junior-ai-data-scientist-at-equifax-4248992147?position=4&amp;pageNum=0&amp;refId=WPjE4SscSp%2BZIJe4Jx9wnw%3D%3D&amp;trackingId=DO%2FOmfe3i7vZlMbpzg6N7g%3D%3D</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -2256,27 +2256,27 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2025-07-30</t>
+          <t>2025-07-31</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Data Scientist, GTM</t>
+          <t>Data Scientist, Marketing</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Notion</t>
+          <t>Google</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Remote</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/data-scientist-gtm-at-notion-4277232159?position=17&amp;pageNum=0&amp;refId=RaKvChwJ8o7QQaLViYrf%2Bg%3D%3D&amp;trackingId=rvXFrEHiQsyaI6YVCu31%2Bw%3D%3D</t>
+          <t>https://ie.linkedin.com/jobs/view/data-scientist-marketing-at-google-4269043226?position=5&amp;pageNum=0&amp;refId=WPjE4SscSp%2BZIJe4Jx9wnw%3D%3D&amp;trackingId=%2FVO3XN154lKcs3UIoMog%2Fw%3D%3D</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -2297,27 +2297,27 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2025-07-30</t>
+          <t>2025-07-31</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Data Scientist Intern (Bellville)</t>
+          <t>Data Scientist</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Momentum</t>
+          <t>CarTrawler</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Remote</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>https://za.linkedin.com/jobs/view/data-scientist-intern-bellville-at-momentum-4273213964?position=18&amp;pageNum=0&amp;refId=RaKvChwJ8o7QQaLViYrf%2Bg%3D%3D&amp;trackingId=Nx6Wq5y4SAZ3B3m%2B%2FJ9f1w%3D%3D</t>
+          <t>https://ie.linkedin.com/jobs/view/data-scientist-at-cartrawler-4252986800?position=6&amp;pageNum=0&amp;refId=WPjE4SscSp%2BZIJe4Jx9wnw%3D%3D&amp;trackingId=lNCSoS0DpGd82hMjEADPkg%3D%3D</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -2338,27 +2338,27 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2025-07-30</t>
+          <t>2025-07-31</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>JUNIOR DATA SCIENTIST</t>
+          <t>Data Scientist - Forecasting</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Agenzia del Lavoro Trentino</t>
+          <t>Signify Health Ireland, part of CVS Health</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Remote</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>https://it.linkedin.com/jobs/view/junior-data-scientist-at-agenzia-del-lavoro-trentino-4272875999?position=19&amp;pageNum=0&amp;refId=RaKvChwJ8o7QQaLViYrf%2Bg%3D%3D&amp;trackingId=dLpMh5fKD0B4tkW6E9k7eg%3D%3D</t>
+          <t>https://ie.linkedin.com/jobs/view/data-scientist-forecasting-at-signify-health-ireland-part-of-cvs-health-4267820674?position=7&amp;pageNum=0&amp;refId=WPjE4SscSp%2BZIJe4Jx9wnw%3D%3D&amp;trackingId=BkysiBvDzCV1nNWnkUoQnw%3D%3D</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -2379,27 +2379,27 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2025-07-30</t>
+          <t>2025-07-31</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Data Scientist</t>
+          <t>Machine Learning Engineer - Pricing</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>arabam.com</t>
+          <t>Sony Interactive Entertainment</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Remote</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>https://tr.linkedin.com/jobs/view/data-scientist-at-arabam-com-4272882835?position=20&amp;pageNum=0&amp;refId=RaKvChwJ8o7QQaLViYrf%2Bg%3D%3D&amp;trackingId=7nPO5YaSrBL0MtmwMWCi4g%3D%3D</t>
+          <t>https://ie.linkedin.com/jobs/view/machine-learning-engineer-pricing-at-sony-interactive-entertainment-4266453676?position=8&amp;pageNum=0&amp;refId=WPjE4SscSp%2BZIJe4Jx9wnw%3D%3D&amp;trackingId=eHzHd%2BiSSC0ohg7M1Grn1A%3D%3D</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -2420,27 +2420,27 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2025-07-30</t>
+          <t>2025-07-31</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Point72 Quantitative Research Intern</t>
+          <t>Data Scientist</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Point72</t>
+          <t>Hertz Car Sales</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Remote</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/point72-quantitative-research-intern-at-point72-3617974435?position=1&amp;pageNum=0&amp;refId=Qlter2Q6%2B0WgbL2fWfIlxA%3D%3D&amp;trackingId=oLOvQBPLuLTWdUMimEpPyg%3D%3D</t>
+          <t>https://ie.linkedin.com/jobs/view/data-scientist-at-hertz-car-sales-4269696735?position=9&amp;pageNum=0&amp;refId=WPjE4SscSp%2BZIJe4Jx9wnw%3D%3D&amp;trackingId=UlSsIBfowdaxzxr%2FFEMsXg%3D%3D</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -2461,27 +2461,27 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2025-07-30</t>
+          <t>2025-07-31</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Quantitative Research Intern</t>
+          <t>Machine Learning Engineer</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Point72</t>
+          <t>Signify Health Ireland, part of CVS Health</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Remote</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/quantitative-research-intern-at-point72-4168042878?position=2&amp;pageNum=0&amp;refId=Qlter2Q6%2B0WgbL2fWfIlxA%3D%3D&amp;trackingId=oDF7Pp7VFJGbGzow0mcMhA%3D%3D</t>
+          <t>https://ie.linkedin.com/jobs/view/machine-learning-engineer-at-signify-health-ireland-part-of-cvs-health-4267825534?position=10&amp;pageNum=0&amp;refId=WPjE4SscSp%2BZIJe4Jx9wnw%3D%3D&amp;trackingId=THpRTB%2F5S6zwttnYBjOcJg%3D%3D</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -2502,27 +2502,27 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2025-07-30</t>
+          <t>2025-07-31</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Quantitative Research Intern (NLP)</t>
+          <t>Data Scientist</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Point72</t>
+          <t>Aon</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Remote</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/quantitative-research-intern-nlp-at-point72-4241519762?position=3&amp;pageNum=0&amp;refId=Qlter2Q6%2B0WgbL2fWfIlxA%3D%3D&amp;trackingId=AEVT0%2BDhfladBOBWRmDXtw%3D%3D</t>
+          <t>https://ie.linkedin.com/jobs/view/data-scientist-at-aon-4263772542?position=12&amp;pageNum=0&amp;refId=WPjE4SscSp%2BZIJe4Jx9wnw%3D%3D&amp;trackingId=rp3DPHrIucQJBgVDmk%2BxVg%3D%3D</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -2543,27 +2543,27 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>2025-07-30</t>
+          <t>2025-07-31</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Investment Intern</t>
+          <t>Data Scientist, Infrastructure, Marketing</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Syfe</t>
+          <t>Google</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Remote</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>https://sg.linkedin.com/jobs/view/investment-intern-at-syfe-4235491865?position=4&amp;pageNum=0&amp;refId=Qlter2Q6%2B0WgbL2fWfIlxA%3D%3D&amp;trackingId=D%2BrFVt0rAY4VUCO42e20OQ%3D%3D</t>
+          <t>https://ie.linkedin.com/jobs/view/data-scientist-infrastructure-marketing-at-google-4269043227?position=13&amp;pageNum=0&amp;refId=WPjE4SscSp%2BZIJe4Jx9wnw%3D%3D&amp;trackingId=%2FsYH8M2mYAmJf%2B6zYjSgrA%3D%3D</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -2584,27 +2584,27 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>2025-07-30</t>
+          <t>2025-07-31</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Quantitative Equity Research, Intern</t>
+          <t>Data Scientist</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Connor, Clark &amp; Lunn Investment Management (CC&amp;L)</t>
+          <t>Hertz</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Remote</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>https://ca.linkedin.com/jobs/view/quantitative-equity-research-intern-at-connor-clark-lunn-investment-management-cc-l-4253178386?position=5&amp;pageNum=0&amp;refId=Qlter2Q6%2B0WgbL2fWfIlxA%3D%3D&amp;trackingId=svoTXzllvKt3m9Ya5By6NQ%3D%3D</t>
+          <t>https://ie.linkedin.com/jobs/view/data-scientist-at-hertz-4269621438?position=14&amp;pageNum=0&amp;refId=WPjE4SscSp%2BZIJe4Jx9wnw%3D%3D&amp;trackingId=0t5FaSgI1lnv6luOneFGnA%3D%3D</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -2625,27 +2625,27 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>2025-07-30</t>
+          <t>2025-07-31</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Quantitative Research Intern</t>
+          <t>Data Scientist, Product Analytics</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>WorldQuant</t>
+          <t>Meta</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Remote</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>https://sg.linkedin.com/jobs/view/quantitative-research-intern-at-worldquant-3997088875?position=6&amp;pageNum=0&amp;refId=Qlter2Q6%2B0WgbL2fWfIlxA%3D%3D&amp;trackingId=65WRRhCwxIql%2F3L3kbOw6Q%3D%3D</t>
+          <t>https://ie.linkedin.com/jobs/view/data-scientist-product-analytics-at-meta-4120826276?position=15&amp;pageNum=0&amp;refId=WPjE4SscSp%2BZIJe4Jx9wnw%3D%3D&amp;trackingId=RgF9iydebGMIhLvmSyJJxw%3D%3D</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -2666,27 +2666,27 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>2025-07-30</t>
+          <t>2025-07-31</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Quantitative Research Intern (DeFi)</t>
+          <t>Machine Learning Engineer</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Kronos Research</t>
+          <t>PTR Global</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Remote</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>https://hk.linkedin.com/jobs/view/quantitative-research-intern-defi-at-kronos-research-4067137075?position=7&amp;pageNum=0&amp;refId=Qlter2Q6%2B0WgbL2fWfIlxA%3D%3D&amp;trackingId=vq0H%2FhEPoiabIoHsMgHmrg%3D%3D</t>
+          <t>https://ie.linkedin.com/jobs/view/machine-learning-engineer-at-ptr-global-4258208117?position=16&amp;pageNum=0&amp;refId=WPjE4SscSp%2BZIJe4Jx9wnw%3D%3D&amp;trackingId=OzRrX1GYbTUfFlx0VAC%2BgA%3D%3D</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -2707,27 +2707,27 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2025-07-30</t>
+          <t>2025-07-31</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Quantitative Research Intern 2026</t>
+          <t>Data Scientist</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Voloridge Investment Management, LLC</t>
+          <t>Stripe</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Remote</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/quantitative-research-intern-2026-at-voloridge-investment-management-llc-4136627377?position=9&amp;pageNum=0&amp;refId=Qlter2Q6%2B0WgbL2fWfIlxA%3D%3D&amp;trackingId=Pa5gpTbCYcRbIVE%2F2SyVIg%3D%3D</t>
+          <t>https://ie.linkedin.com/jobs/view/data-scientist-at-stripe-4252530726?position=18&amp;pageNum=0&amp;refId=WPjE4SscSp%2BZIJe4Jx9wnw%3D%3D&amp;trackingId=UOOIrYh7%2FmH6kJdLuQThxg%3D%3D</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -2748,27 +2748,27 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>2025-07-30</t>
+          <t>2025-07-31</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Quantitative Research Intern (Hong Kong/Remote)</t>
+          <t>Machine Learning Researcher</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Kronos Research</t>
+          <t>Intercom</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Remote</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>https://hk.linkedin.com/jobs/view/quantitative-research-intern-hong-kong-remote-at-kronos-research-4068289119?position=10&amp;pageNum=0&amp;refId=Qlter2Q6%2B0WgbL2fWfIlxA%3D%3D&amp;trackingId=8QjGkUyJX9TTI4AgL0XCiw%3D%3D</t>
+          <t>https://ie.linkedin.com/jobs/view/machine-learning-researcher-at-intercom-4167888618?position=19&amp;pageNum=0&amp;refId=WPjE4SscSp%2BZIJe4Jx9wnw%3D%3D&amp;trackingId=Niu4gwGWHw4kR6w0JSEUow%3D%3D</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -2789,27 +2789,27 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>2025-07-30</t>
+          <t>2025-07-31</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Quantitative Research Intern</t>
+          <t>Data Scientist - Dublin</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>AlphaGrep</t>
+          <t>PayPal</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Remote</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>https://sg.linkedin.com/jobs/view/quantitative-research-intern-at-alphagrep-4250546645?position=11&amp;pageNum=0&amp;refId=Qlter2Q6%2B0WgbL2fWfIlxA%3D%3D&amp;trackingId=gctYwYyhn1RZ166oeF3qZA%3D%3D</t>
+          <t>https://ie.linkedin.com/jobs/view/data-scientist-dublin-at-paypal-4267462442?position=20&amp;pageNum=0&amp;refId=WPjE4SscSp%2BZIJe4Jx9wnw%3D%3D&amp;trackingId=asOvwGzJSqCaAyBeT%2B6ZuQ%3D%3D</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -2830,27 +2830,27 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>2025-07-30</t>
+          <t>2025-07-31</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Quantitative Research Intern, Summer 2026</t>
+          <t>Data Scientist – LLM Agent</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Akuna Capital</t>
+          <t>PayPal</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Remote</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/quantitative-research-intern-summer-2026-at-akuna-capital-4266397392?position=12&amp;pageNum=0&amp;refId=Qlter2Q6%2B0WgbL2fWfIlxA%3D%3D&amp;trackingId=KxMHXR1crAOcnJYf6UfQAw%3D%3D</t>
+          <t>https://ie.linkedin.com/jobs/view/data-scientist-%E2%80%93-llm-agent-at-paypal-4272881760?position=21&amp;pageNum=0&amp;refId=WPjE4SscSp%2BZIJe4Jx9wnw%3D%3D&amp;trackingId=VfHBLzKo%2BAzjCLXgCXWfkg%3D%3D</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -2871,27 +2871,27 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>2025-07-30</t>
+          <t>2025-07-31</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Quantitative Research Intern (Machine Learning)</t>
+          <t>Machine Learning Engineer - Recomender Systems</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>AlphaGrep</t>
+          <t>Sony Interactive Entertainment</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Remote</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>https://cn.linkedin.com/jobs/view/quantitative-research-intern-machine-learning-at-alphagrep-4223313644?position=13&amp;pageNum=0&amp;refId=Qlter2Q6%2B0WgbL2fWfIlxA%3D%3D&amp;trackingId=4Q0ZMr6HTDoGD1Lwau%2Fr4g%3D%3D</t>
+          <t>https://ie.linkedin.com/jobs/view/machine-learning-engineer-recomender-systems-at-sony-interactive-entertainment-4266455459?position=22&amp;pageNum=0&amp;refId=WPjE4SscSp%2BZIJe4Jx9wnw%3D%3D&amp;trackingId=YFXwu4%2FoCkEXDpuCxDuo5g%3D%3D</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -2912,27 +2912,27 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>2025-07-30</t>
+          <t>2025-07-31</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Quantitative Research Internship – Master's: Summer 2026</t>
+          <t>Data Scientist</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Susquehanna International Group</t>
+          <t>Optum</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Remote</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/quantitative-research-internship-%E2%80%93-master-s-summer-2026-at-susquehanna-international-group-4223792745?position=16&amp;pageNum=0&amp;refId=Qlter2Q6%2B0WgbL2fWfIlxA%3D%3D&amp;trackingId=PBdEOPEssq6wiYDgrvkqNA%3D%3D</t>
+          <t>https://ie.linkedin.com/jobs/view/data-scientist-at-optum-4267775367?position=23&amp;pageNum=0&amp;refId=WPjE4SscSp%2BZIJe4Jx9wnw%3D%3D&amp;trackingId=I75GalfBt9O32KGmYaICmA%3D%3D</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -2953,27 +2953,27 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>2025-07-30</t>
+          <t>2025-07-31</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Quantitative Research Intern (BS/MS)</t>
+          <t>Business Data Scientist, gTech Ads</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>IMC Trading</t>
+          <t>Google</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Remote</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/quantitative-research-intern-bs-ms-at-imc-trading-4260411194?position=18&amp;pageNum=0&amp;refId=Qlter2Q6%2B0WgbL2fWfIlxA%3D%3D&amp;trackingId=O5ti5Ju3FWf0EPhcpr2c1g%3D%3D</t>
+          <t>https://ie.linkedin.com/jobs/view/business-data-scientist-gtech-ads-at-google-4271323717?position=25&amp;pageNum=0&amp;refId=WPjE4SscSp%2BZIJe4Jx9wnw%3D%3D&amp;trackingId=BHEuVMfrC3RokiXgiFTxQQ%3D%3D</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -2994,27 +2994,27 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>2025-07-30</t>
+          <t>2025-07-31</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Machine Learning Intern, Internship</t>
+          <t>Data Scientist</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Jobright.ai</t>
+          <t>Ziff Davis</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Remote</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/machine-learning-intern-internship-at-jobright-ai-4273006964?position=20&amp;pageNum=0&amp;refId=Qlter2Q6%2B0WgbL2fWfIlxA%3D%3D&amp;trackingId=sEqjZZo3QOhh23jk%2FE%2BvAQ%3D%3D</t>
+          <t>https://ie.linkedin.com/jobs/view/data-scientist-at-ziff-davis-4232599993?position=26&amp;pageNum=0&amp;refId=WPjE4SscSp%2BZIJe4Jx9wnw%3D%3D&amp;trackingId=my%2B%2FhiSC6u%2FGm8jKpLyfpg%3D%3D</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -3032,6 +3032,4844 @@
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
     </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>2025-07-31</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Machine Learning Scientist</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>PayPal</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Ireland</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>https://ie.linkedin.com/jobs/view/machine-learning-scientist-at-paypal-4267457930?position=28&amp;pageNum=0&amp;refId=WPjE4SscSp%2BZIJe4Jx9wnw%3D%3D&amp;trackingId=8lgR61dtkAY%2B89SyWkg9bw%3D%3D</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>LinkedIn</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>Found</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>2025-07-31</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Data Scientist - LLMs &amp; Generative AI</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>McAfee</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Ireland</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>https://ie.linkedin.com/jobs/view/data-scientist-llms-generative-ai-at-mcafee-4266592500?position=29&amp;pageNum=0&amp;refId=WPjE4SscSp%2BZIJe4Jx9wnw%3D%3D&amp;trackingId=xLv5xSGEy3J%2BmXPprmUGYw%3D%3D</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>LinkedIn</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>Found</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr"/>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>2025-07-31</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>AI - Data Scientist</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>team.blue</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Ireland</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>https://ie.linkedin.com/jobs/view/ai-data-scientist-at-team-blue-4233689349?position=30&amp;pageNum=0&amp;refId=WPjE4SscSp%2BZIJe4Jx9wnw%3D%3D&amp;trackingId=kqfgFijPHaoIP5ZjjtlWzg%3D%3D</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>LinkedIn</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>Found</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr"/>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>2025-07-31</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Machine Learning Operations Engineer</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Integral Ad Science</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Ireland</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>https://ie.linkedin.com/jobs/view/machine-learning-operations-engineer-at-integral-ad-science-4243806499?position=31&amp;pageNum=0&amp;refId=WPjE4SscSp%2BZIJe4Jx9wnw%3D%3D&amp;trackingId=zbnQEJY8aoHDUjNMM9sGlw%3D%3D</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>LinkedIn</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>Found</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr"/>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>2025-07-31</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Científico de datos</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Gravitad</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Ireland</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>https://ie.linkedin.com/jobs/view/cient%C3%ADfico-de-datos-at-gravitad-4270898376?position=33&amp;pageNum=0&amp;refId=WPjE4SscSp%2BZIJe4Jx9wnw%3D%3D&amp;trackingId=Jzs0PuD4%2FXLoUy7Z8%2FdR5Q%3D%3D</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>LinkedIn</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>Found</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>2025-07-31</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Data Scientist</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Eaton</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Ireland</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>https://ie.linkedin.com/jobs/view/data-scientist-at-eaton-4272862733?position=34&amp;pageNum=0&amp;refId=WPjE4SscSp%2BZIJe4Jx9wnw%3D%3D&amp;trackingId=NJcUO6Kjxab4EsowoIrWGw%3D%3D</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>LinkedIn</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>Found</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>2025-07-31</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Machine Learning Researcher Fellowship</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Intercom</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Ireland</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>https://ie.linkedin.com/jobs/view/machine-learning-researcher-fellowship-at-intercom-4167883961?position=35&amp;pageNum=0&amp;refId=WPjE4SscSp%2BZIJe4Jx9wnw%3D%3D&amp;trackingId=wpLa10uCYNeolCPgiV0sUQ%3D%3D</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>LinkedIn</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>Found</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>2025-07-31</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Data Scientist -Financial Modeling,</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Optum</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Ireland</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>https://ie.linkedin.com/jobs/view/data-scientist-financial-modeling-at-optum-4268903638?position=36&amp;pageNum=0&amp;refId=WPjE4SscSp%2BZIJe4Jx9wnw%3D%3D&amp;trackingId=qBreE8TKHferwukJXqjRTA%3D%3D</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>LinkedIn</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>Found</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>2025-07-31</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Data Scientist</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>SITA</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Ireland</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>https://ie.linkedin.com/jobs/view/data-scientist-at-sita-4239390975?position=37&amp;pageNum=0&amp;refId=WPjE4SscSp%2BZIJe4Jx9wnw%3D%3D&amp;trackingId=pKBCP2y2XscffpawjyqKpA%3D%3D</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>LinkedIn</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>Found</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>2025-07-31</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Data Scientist</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Horizon Controls Group</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Ireland</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>https://ie.linkedin.com/jobs/view/data-scientist-at-horizon-controls-group-4258720130?position=38&amp;pageNum=0&amp;refId=WPjE4SscSp%2BZIJe4Jx9wnw%3D%3D&amp;trackingId=5rVAI9f%2F9DRa1E8p9Xw7Nw%3D%3D</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>LinkedIn</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>Found</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr"/>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>2025-07-31</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>AI Data Scientist</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Equifax</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Ireland</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>https://ie.linkedin.com/jobs/view/ai-data-scientist-at-equifax-4250534478?position=39&amp;pageNum=0&amp;refId=WPjE4SscSp%2BZIJe4Jx9wnw%3D%3D&amp;trackingId=%2BxapaN%2BqRCNnfnG%2BOyGvEQ%3D%3D</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>LinkedIn</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>Found</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr"/>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>2025-07-31</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Machine Learning Engineer – PyTorch/C++ Development (NPU Architecture Team)</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Qualcomm</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Ireland</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>https://ie.linkedin.com/jobs/view/machine-learning-engineer-%E2%80%93-pytorch-c%2B%2B-development-npu-architecture-team-at-qualcomm-4273832630?position=40&amp;pageNum=0&amp;refId=WPjE4SscSp%2BZIJe4Jx9wnw%3D%3D&amp;trackingId=qqxzJ1RDg7Bf1cebyHczmg%3D%3D</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>LinkedIn</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>Found</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr"/>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>2025-07-31</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Optimization Data Scientist</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Bluecrux</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Ireland</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>https://ie.linkedin.com/jobs/view/optimization-data-scientist-at-bluecrux-4249036303?position=42&amp;pageNum=0&amp;refId=WPjE4SscSp%2BZIJe4Jx9wnw%3D%3D&amp;trackingId=YR3h4j7TuoUI7Y4mi%2FLQVg%3D%3D</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>LinkedIn</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>Found</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>2025-07-31</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Decision Scientist</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>PayPal</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Ireland</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>https://ie.linkedin.com/jobs/view/decision-scientist-at-paypal-4267461435?position=45&amp;pageNum=0&amp;refId=WPjE4SscSp%2BZIJe4Jx9wnw%3D%3D&amp;trackingId=j9rFgNTTv%2Faxi9q%2FngsUQw%3D%3D</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>LinkedIn</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>Found</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>2025-07-31</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Data Scientist -Financial Modeling</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Optum</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Ireland</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>https://ie.linkedin.com/jobs/view/data-scientist-financial-modeling-at-optum-4262473465?position=46&amp;pageNum=0&amp;refId=WPjE4SscSp%2BZIJe4Jx9wnw%3D%3D&amp;trackingId=m8KcCAfB%2FhdzMMET5IAeyQ%3D%3D</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>LinkedIn</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>Found</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>2025-07-31</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Staff Machine Learning Engineer - Pricing</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Sony Interactive Entertainment</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Ireland</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>https://ie.linkedin.com/jobs/view/staff-machine-learning-engineer-pricing-at-sony-interactive-entertainment-4266453675?position=48&amp;pageNum=0&amp;refId=WPjE4SscSp%2BZIJe4Jx9wnw%3D%3D&amp;trackingId=T89feGfP939y%2BF4mPTud9g%3D%3D</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>LinkedIn</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>Found</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr"/>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>2025-07-31</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Machine Learning Scientist</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Proofpoint</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Ireland</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>https://ie.linkedin.com/jobs/view/machine-learning-scientist-at-proofpoint-4248068143?position=50&amp;pageNum=0&amp;refId=WPjE4SscSp%2BZIJe4Jx9wnw%3D%3D&amp;trackingId=xvwCM8Jamu97eW60vbgbUQ%3D%3D</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>LinkedIn</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>Found</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr"/>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>2025-07-31</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Pricing Machine Learning Engineer</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Aviva</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Ireland</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>https://ie.linkedin.com/jobs/view/pricing-machine-learning-engineer-at-aviva-4267967002?position=51&amp;pageNum=0&amp;refId=WPjE4SscSp%2BZIJe4Jx9wnw%3D%3D&amp;trackingId=74LwLzkwnDwX3maFpSX8rQ%3D%3D</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>LinkedIn</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>Found</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr"/>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>2025-07-31</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Staff Robotics AI/ ML Engineer</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Analog Devices</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Ireland</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>https://ie.linkedin.com/jobs/view/staff-robotics-ai-ml-engineer-at-analog-devices-4236008917?position=52&amp;pageNum=0&amp;refId=WPjE4SscSp%2BZIJe4Jx9wnw%3D%3D&amp;trackingId=qiLAbuSIbmJrHCSYHC7egQ%3D%3D</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>LinkedIn</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>Found</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr"/>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>2025-07-31</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Data Scientist - CGS Event</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>PayPal</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>Ireland</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>https://ie.linkedin.com/jobs/view/data-scientist-cgs-event-at-paypal-4267459579?position=53&amp;pageNum=0&amp;refId=WPjE4SscSp%2BZIJe4Jx9wnw%3D%3D&amp;trackingId=bKFErPLL5TJK%2FJ8zQlbBdA%3D%3D</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>LinkedIn</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>Found</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr"/>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>2025-07-31</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Machine Learning Scientist - CGS Event</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>PayPal</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Ireland</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>https://ie.linkedin.com/jobs/view/machine-learning-scientist-cgs-event-at-paypal-4267465414?position=54&amp;pageNum=0&amp;refId=WPjE4SscSp%2BZIJe4Jx9wnw%3D%3D&amp;trackingId=s6Td6JUdS%2FhatrjJ3GXlVA%3D%3D</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>LinkedIn</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>Found</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr"/>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>2025-07-31</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Staff Machine Learning Engineer</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Harnham</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Ireland</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>https://ie.linkedin.com/jobs/view/staff-machine-learning-engineer-at-harnham-4273918155?position=55&amp;pageNum=0&amp;refId=WPjE4SscSp%2BZIJe4Jx9wnw%3D%3D&amp;trackingId=fI%2Bu2gWR4ssuIRGNTC3Qtw%3D%3D</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>LinkedIn</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>Found</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr"/>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>2025-07-31</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Sr Machine Learning Engineer - Fintech Foundation (100% Remote - Ireland)</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Hopper</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Ireland</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>https://ie.linkedin.com/jobs/view/sr-machine-learning-engineer-fintech-foundation-100%25-remote-ireland-at-hopper-4231978383?position=57&amp;pageNum=0&amp;refId=WPjE4SscSp%2BZIJe4Jx9wnw%3D%3D&amp;trackingId=HrvL9W%2BTLej3OMRzj1EGXw%3D%3D</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>LinkedIn</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>Found</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr"/>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>2025-07-31</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Applied Scientist</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Docusign</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Ireland</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>https://ie.linkedin.com/jobs/view/applied-scientist-at-docusign-4217492452?position=10&amp;pageNum=0&amp;refId=S3cipimbI5%2FDkdpL%2B6qT6w%3D%3D&amp;trackingId=eZ6ltaRsEA60OThD3y%2BSoQ%3D%3D</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>LinkedIn</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>Found</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr"/>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>2025-07-31</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>R&amp;D Engineer</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>TOMRA</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Ireland</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>https://ie.linkedin.com/jobs/view/r-d-engineer-at-tomra-4271607734?position=24&amp;pageNum=0&amp;refId=S3cipimbI5%2FDkdpL%2B6qT6w%3D%3D&amp;trackingId=jWZDmWVBO2xqP%2BFhjQOXtw%3D%3D</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>LinkedIn</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>Found</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr"/>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>2025-07-31</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>AI Engineer</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Paydock</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>Ireland</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>https://ie.linkedin.com/jobs/view/ai-engineer-at-paydock-4249289057?position=31&amp;pageNum=0&amp;refId=S3cipimbI5%2FDkdpL%2B6qT6w%3D%3D&amp;trackingId=ZTxRq2B8E6F4gcfoNvkchg%3D%3D</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>LinkedIn</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>Found</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr"/>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>2025-07-31</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>AI Prompt Engineer</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>ActiveCampaign</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Ireland</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>https://ie.linkedin.com/jobs/view/ai-prompt-engineer-at-activecampaign-4271461776?position=32&amp;pageNum=0&amp;refId=S3cipimbI5%2FDkdpL%2B6qT6w%3D%3D&amp;trackingId=CrFyXj1I2%2BJRoVxvWxurVw%3D%3D</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>LinkedIn</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>Found</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr"/>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>2025-07-31</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>AI Engineer</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Compliance &amp; Risks</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>Ireland</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>https://ie.linkedin.com/jobs/view/ai-engineer-at-compliance-risks-4273765345?position=33&amp;pageNum=0&amp;refId=S3cipimbI5%2FDkdpL%2B6qT6w%3D%3D&amp;trackingId=pWOMswWuZm3FD7Ai5WGYKg%3D%3D</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>LinkedIn</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>Found</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr"/>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>2025-07-31</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Research Engineer</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Tenable</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>Ireland</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>https://ie.linkedin.com/jobs/view/research-engineer-at-tenable-4233027919?position=35&amp;pageNum=0&amp;refId=S3cipimbI5%2FDkdpL%2B6qT6w%3D%3D&amp;trackingId=T0Jid4ePl2gPZrhQoODSWg%3D%3D</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>LinkedIn</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>Found</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr"/>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>2025-07-31</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>AI Engineer</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Cytora</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>Ireland</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>https://ie.linkedin.com/jobs/view/ai-engineer-at-cytora-4184296076?position=39&amp;pageNum=0&amp;refId=S3cipimbI5%2FDkdpL%2B6qT6w%3D%3D&amp;trackingId=oaDiZGgXRi6aozm8yu5sOA%3D%3D</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>LinkedIn</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>Found</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr"/>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>2025-07-31</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>AI Engineer</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Ardmac</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>Ireland</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>https://ie.linkedin.com/jobs/view/ai-engineer-at-ardmac-4249161056?position=42&amp;pageNum=0&amp;refId=S3cipimbI5%2FDkdpL%2B6qT6w%3D%3D&amp;trackingId=uNEa9e5m8Unsq9oA9qaR3A%3D%3D</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>LinkedIn</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>Found</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr"/>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>2025-07-31</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>AI Research Engineer (Pre-training)</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Tether.io</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>Ireland</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>https://ie.linkedin.com/jobs/view/ai-research-engineer-pre-training-at-tether-io-4275571944?position=46&amp;pageNum=0&amp;refId=S3cipimbI5%2FDkdpL%2B6qT6w%3D%3D&amp;trackingId=L2wUfAmqr2uCcPYgL9bHtg%3D%3D</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>LinkedIn</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>Found</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr"/>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>2025-07-31</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Graduate Software Engineer (React)</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Fenergo</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>Ireland</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>https://ie.linkedin.com/jobs/view/graduate-software-engineer-react-at-fenergo-4261026118?position=52&amp;pageNum=0&amp;refId=S3cipimbI5%2FDkdpL%2B6qT6w%3D%3D&amp;trackingId=tBuiD7eW9kVJ01w3Jta%2F0A%3D%3D</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>LinkedIn</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>Found</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr"/>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>2025-07-31</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>AI engineer – Own the project!</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Archer - The IT Recruitment Consultancy</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>Ireland</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>https://ie.linkedin.com/jobs/view/ai-engineer-%E2%80%93-own-the-project%21-at-archer-the-it-recruitment-consultancy-4275369916?position=53&amp;pageNum=0&amp;refId=S3cipimbI5%2FDkdpL%2B6qT6w%3D%3D&amp;trackingId=Dx8faTuVcnxgs7cogsJmvw%3D%3D</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>LinkedIn</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>Found</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr"/>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>2025-07-31</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Quantitative Analyst I</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Fanatics</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>Ireland</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>https://ie.linkedin.com/jobs/view/quantitative-analyst-i-at-fanatics-4232829743?position=1&amp;pageNum=0&amp;refId=lzuKubdLoGMFhCGPpxKEeA%3D%3D&amp;trackingId=ovEWVywIPU8MbQiB3k4wJg%3D%3D</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>LinkedIn</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>Found</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr"/>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>2025-07-31</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Full and Part time Healthcare Assistants</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Caremark Dublin North</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>Ireland</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>https://ie.linkedin.com/jobs/view/full-and-part-time-healthcare-assistants-at-caremark-dublin-north-3852470341?position=1&amp;pageNum=0&amp;refId=pGzn1qNSTapY%2BTWS4voWOA%3D%3D&amp;trackingId=tLziHaH%2BhMFDrr89S%2BpDTg%3D%3D</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>LinkedIn</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>Found</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr"/>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>2025-07-31</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Fully Remote: Media Search Analyst - English Speaker</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>TELUS Digital</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>Ireland</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>https://ie.linkedin.com/jobs/view/fully-remote-media-search-analyst-english-speaker-at-telus-digital-4267758226?position=2&amp;pageNum=0&amp;refId=pGzn1qNSTapY%2BTWS4voWOA%3D%3D&amp;trackingId=1GpK0YVvfd1COC04RLGh5g%3D%3D</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>LinkedIn</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>Found</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr"/>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>2025-07-31</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Founding Account Executive (Europe)</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Tremendous</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>Ireland</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>https://ie.linkedin.com/jobs/view/founding-account-executive-europe-at-tremendous-4149648282?position=3&amp;pageNum=0&amp;refId=pGzn1qNSTapY%2BTWS4voWOA%3D%3D&amp;trackingId=deAOUFZ07v5Q%2BBHiTZ%2BdBA%3D%3D</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>LinkedIn</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>Found</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr"/>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>2025-07-31</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Receptionist</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>The Harcourt Hotel</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>Ireland</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>https://ie.linkedin.com/jobs/view/receptionist-at-the-harcourt-hotel-4265597589?position=4&amp;pageNum=0&amp;refId=pGzn1qNSTapY%2BTWS4voWOA%3D%3D&amp;trackingId=vA3fLCdjqnLkZOp%2FPksxYg%3D%3D</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>LinkedIn</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>Found</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr"/>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>2025-07-31</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Executive Assistant - HR Operations</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>Maynooth University</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>Ireland</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>https://ie.linkedin.com/jobs/view/executive-assistant-hr-operations-at-maynooth-university-4269851182?position=5&amp;pageNum=0&amp;refId=pGzn1qNSTapY%2BTWS4voWOA%3D%3D&amp;trackingId=Xw9Af%2FaqcbtbTnHJl%2FBZQQ%3D%3D</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>LinkedIn</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>Found</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr"/>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>2025-07-31</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Cluster Social Media &amp; Marketing Executive</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>Leonardo Hotels UK &amp; Ireland | Formerly Jurys Inn</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>Ireland</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>https://ie.linkedin.com/jobs/view/cluster-social-media-marketing-executive-at-leonardo-hotels-uk-ireland-formerly-jurys-inn-4267196272?position=7&amp;pageNum=0&amp;refId=pGzn1qNSTapY%2BTWS4voWOA%3D%3D&amp;trackingId=t024zwsaF%2BpZxsyHt4VqGA%3D%3D</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>LinkedIn</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>Found</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr"/>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>2025-07-31</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Studio Coordinator</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Hawkins\Brown</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>Ireland</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>https://ie.linkedin.com/jobs/view/studio-coordinator-at-hawkins-brown-4260729869?position=8&amp;pageNum=0&amp;refId=pGzn1qNSTapY%2BTWS4voWOA%3D%3D&amp;trackingId=6QPvKj2c6WcDxKuyBl%2BeOw%3D%3D</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>LinkedIn</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>Found</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr"/>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>2025-07-31</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Social Media Administrator</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>Kare Plan</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>Ireland</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>https://ie.linkedin.com/jobs/view/social-media-administrator-at-kare-plan-4278054165?position=9&amp;pageNum=0&amp;refId=pGzn1qNSTapY%2BTWS4voWOA%3D%3D&amp;trackingId=kvYT1fLP%2BZzcJ%2B09%2BAwkag%3D%3D</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>LinkedIn</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>Found</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr"/>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>2025-07-31</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Part Time Accounts Assistant</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>FMI - Field Management</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>Ireland</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>https://ie.linkedin.com/jobs/view/part-time-accounts-assistant-at-fmi-field-management-4264830805?position=10&amp;pageNum=0&amp;refId=pGzn1qNSTapY%2BTWS4voWOA%3D%3D&amp;trackingId=%2F4aAtp8aXFGdZOLbl5Thug%3D%3D</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>LinkedIn</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>Found</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr"/>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>2025-07-31</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Training Coordinator</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>AQMetrics</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>Ireland</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>https://ie.linkedin.com/jobs/view/training-coordinator-at-aqmetrics-4275876868?position=11&amp;pageNum=0&amp;refId=pGzn1qNSTapY%2BTWS4voWOA%3D%3D&amp;trackingId=v%2BKfE88cnF8brztJR2SwnQ%3D%3D</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>LinkedIn</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>Found</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr"/>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>2025-07-31</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Cleaners</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>Apleona UK</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>Ireland</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>https://ie.linkedin.com/jobs/view/cleaners-at-apleona-uk-4267471278?position=13&amp;pageNum=0&amp;refId=pGzn1qNSTapY%2BTWS4voWOA%3D%3D&amp;trackingId=rd6RoGTiS8GYhOdNHxg3Hg%3D%3D</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>LinkedIn</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>Found</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr"/>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>2025-07-31</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Ticket Desk Agent</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>Sky Handling Partner</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>Ireland</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>https://ie.linkedin.com/jobs/view/ticket-desk-agent-at-sky-handling-partner-4245922879?position=14&amp;pageNum=0&amp;refId=pGzn1qNSTapY%2BTWS4voWOA%3D%3D&amp;trackingId=Q%2FZ6dZJOsEG1A5tJtnrFKQ%3D%3D</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>LinkedIn</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>Found</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr"/>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>2025-07-31</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Executive Assistant</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>CarTrawler</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>Ireland</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>https://ie.linkedin.com/jobs/view/executive-assistant-at-cartrawler-4235366138?position=17&amp;pageNum=0&amp;refId=pGzn1qNSTapY%2BTWS4voWOA%3D%3D&amp;trackingId=aQ9WqI2EtPjdxm91vL99eA%3D%3D</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>LinkedIn</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>Found</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr"/>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>2025-07-31</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>General Operative</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>Kepak Group</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>Ireland</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>https://ie.linkedin.com/jobs/view/general-operative-at-kepak-group-4269361612?position=18&amp;pageNum=0&amp;refId=pGzn1qNSTapY%2BTWS4voWOA%3D%3D&amp;trackingId=5zDGZuYgfd3UtxijZm6NsA%3D%3D</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>LinkedIn</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>Found</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr"/>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>2025-07-31</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Marketing Science Analyst</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>Analytic Partners</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>Ireland</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>https://ie.linkedin.com/jobs/view/marketing-science-analyst-at-analytic-partners-4222668436?position=19&amp;pageNum=0&amp;refId=pGzn1qNSTapY%2BTWS4voWOA%3D%3D&amp;trackingId=Om0iiyLItaaEG%2BrngN4J4w%3D%3D</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>LinkedIn</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>Found</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr"/>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>2025-07-31</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Junior Interior Designer - Graduate Recruitment</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>Perkins&amp;Will</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>Ireland</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>https://ie.linkedin.com/jobs/view/junior-interior-designer-graduate-recruitment-at-perkins-will-4241046271?position=20&amp;pageNum=0&amp;refId=pGzn1qNSTapY%2BTWS4voWOA%3D%3D&amp;trackingId=PHUHeYZyd927aafCXZLQZw%3D%3D</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>LinkedIn</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>Found</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr"/>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>2025-07-31</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Remote: Media Search Analyst - English</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>TELUS Digital</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>Ireland</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>https://ie.linkedin.com/jobs/view/remote-media-search-analyst-english-at-telus-digital-4261410736?position=21&amp;pageNum=0&amp;refId=pGzn1qNSTapY%2BTWS4voWOA%3D%3D&amp;trackingId=Q2QNnbtDrulZGmu4Fykm8w%3D%3D</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>LinkedIn</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>Found</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr"/>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>2025-07-31</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Marketing Executive</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>Sinead Keary The Label</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>Ireland</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>https://ie.linkedin.com/jobs/view/marketing-executive-at-sinead-keary-the-label-4275426408?position=22&amp;pageNum=0&amp;refId=pGzn1qNSTapY%2BTWS4voWOA%3D%3D&amp;trackingId=E%2BuoKZ8ZBnEX6BtcFyUglw%3D%3D</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>LinkedIn</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>Found</t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr"/>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>2025-07-31</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Sales Development Representative (SDR): Europe</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>Valutico</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>Ireland</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>https://ie.linkedin.com/jobs/view/sales-development-representative-sdr-europe-at-valutico-4275615040?position=24&amp;pageNum=0&amp;refId=pGzn1qNSTapY%2BTWS4voWOA%3D%3D&amp;trackingId=w6Jrr6ePxfmYQk4yqDc%2BKQ%3D%3D</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>LinkedIn</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>Found</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>2025-07-31</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Warehouse Operative - Part Time</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>Sky Handling Partner</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>Ireland</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>https://ie.linkedin.com/jobs/view/warehouse-operative-part-time-at-sky-handling-partner-4246350712?position=25&amp;pageNum=0&amp;refId=pGzn1qNSTapY%2BTWS4voWOA%3D%3D&amp;trackingId=saqSfA2pC19B3rjCxp3PDA%3D%3D</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>LinkedIn</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>Found</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>2025-07-31</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Human Resources Coordinator</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>Harper Finley Professional Recruitment</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>Ireland</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>https://ie.linkedin.com/jobs/view/human-resources-coordinator-at-harper-finley-professional-recruitment-4265314174?position=26&amp;pageNum=0&amp;refId=pGzn1qNSTapY%2BTWS4voWOA%3D%3D&amp;trackingId=t76cBj1pPirfEvu3ltyEYA%3D%3D</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>LinkedIn</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>Found</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr"/>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>2025-07-31</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Receptionist</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>Leonardo Hotels UK &amp; Ireland | Formerly Jurys Inn</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>Ireland</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>https://ie.linkedin.com/jobs/view/receptionist-at-leonardo-hotels-uk-ireland-formerly-jurys-inn-4272088168?position=27&amp;pageNum=0&amp;refId=pGzn1qNSTapY%2BTWS4voWOA%3D%3D&amp;trackingId=zU5vxJxCl25EsXYBBT7Sow%3D%3D</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>LinkedIn</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>Found</t>
+        </is>
+      </c>
+      <c r="H120" t="inlineStr"/>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>2025-07-31</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Bar &amp; Floor Crew</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>BrewDog</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>Ireland</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>https://ie.linkedin.com/jobs/view/bar-floor-crew-at-brewdog-4248928111?position=28&amp;pageNum=0&amp;refId=pGzn1qNSTapY%2BTWS4voWOA%3D%3D&amp;trackingId=MCuEXr50TGZgqipJjKU6bw%3D%3D</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>LinkedIn</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>Found</t>
+        </is>
+      </c>
+      <c r="H121" t="inlineStr"/>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>2025-07-31</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>Healthcare Assistant (HCA) – (Finglas) | From €14.79 per hour</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>CareChoice Group Ireland</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>Ireland</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>https://ie.linkedin.com/jobs/view/healthcare-assistant-hca-%E2%80%93-finglas-from-%E2%82%AC14-79-per-hour-at-carechoice-group-ireland-4246292035?position=29&amp;pageNum=0&amp;refId=pGzn1qNSTapY%2BTWS4voWOA%3D%3D&amp;trackingId=P%2B6O2YvOhYb9XANU0egBbA%3D%3D</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>LinkedIn</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>Found</t>
+        </is>
+      </c>
+      <c r="H122" t="inlineStr"/>
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>2025-07-31</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>Front of House Assistant</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>Hotels-Res</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>Ireland</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>https://ie.linkedin.com/jobs/view/front-of-house-assistant-at-hotels-res-4270409540?position=30&amp;pageNum=0&amp;refId=pGzn1qNSTapY%2BTWS4voWOA%3D%3D&amp;trackingId=BrNIgCQPqg%2BvDks%2FK2e3rQ%3D%3D</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>LinkedIn</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>Found</t>
+        </is>
+      </c>
+      <c r="H123" t="inlineStr"/>
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>2025-07-31</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>Digital and Social Account Executive</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>Verve The Live Agency | B Corp</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>Ireland</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>https://ie.linkedin.com/jobs/view/digital-and-social-account-executive-at-verve-the-live-agency-b-corp-4269683801?position=31&amp;pageNum=0&amp;refId=pGzn1qNSTapY%2BTWS4voWOA%3D%3D&amp;trackingId=DI5fQVrPxCR85%2FOqyQHIRg%3D%3D</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>LinkedIn</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>Found</t>
+        </is>
+      </c>
+      <c r="H124" t="inlineStr"/>
+      <c r="I124" t="inlineStr"/>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>2025-07-31</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>Permanent Part Time and Temporary Full Time Support Workers 82834</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>HSE Workplace Health &amp; Wellbeing</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>Ireland</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>https://ie.linkedin.com/jobs/view/permanent-part-time-and-temporary-full-time-support-workers-82834-at-hse-workplace-health-wellbeing-4271340072?position=32&amp;pageNum=0&amp;refId=pGzn1qNSTapY%2BTWS4voWOA%3D%3D&amp;trackingId=HuuCxz8Td0AcX3ct%2Bcl58A%3D%3D</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>LinkedIn</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>Found</t>
+        </is>
+      </c>
+      <c r="H125" t="inlineStr"/>
+      <c r="I125" t="inlineStr"/>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>2025-07-31</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>Assistant Merchandiser</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>Primark</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>Ireland</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>https://ie.linkedin.com/jobs/view/assistant-merchandiser-at-primark-4256534258?position=33&amp;pageNum=0&amp;refId=pGzn1qNSTapY%2BTWS4voWOA%3D%3D&amp;trackingId=aFqDOlAFuzoYG1nMZhGqlQ%3D%3D</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>LinkedIn</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>Found</t>
+        </is>
+      </c>
+      <c r="H126" t="inlineStr"/>
+      <c r="I126" t="inlineStr"/>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>2025-07-31</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>National Account Executive</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>Nestlé</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>Ireland</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>https://ie.linkedin.com/jobs/view/national-account-executive-at-nestl%C3%A9-4276074839?position=34&amp;pageNum=0&amp;refId=pGzn1qNSTapY%2BTWS4voWOA%3D%3D&amp;trackingId=tjOfiowjLj%2FtnzqjUL5N6A%3D%3D</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>LinkedIn</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>Found</t>
+        </is>
+      </c>
+      <c r="H127" t="inlineStr"/>
+      <c r="I127" t="inlineStr"/>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>2025-07-31</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>Part-Time Bookkeeper &amp; Administrative Assistant</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>Abrivia Recruitment Specialists</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>Ireland</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>https://ie.linkedin.com/jobs/view/part-time-bookkeeper-administrative-assistant-at-abrivia-recruitment-specialists-4276793961?position=35&amp;pageNum=0&amp;refId=pGzn1qNSTapY%2BTWS4voWOA%3D%3D&amp;trackingId=14lwrjK8Wxe9a0jdVpc8pw%3D%3D</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>LinkedIn</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>Found</t>
+        </is>
+      </c>
+      <c r="H128" t="inlineStr"/>
+      <c r="I128" t="inlineStr"/>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>2025-07-31</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>Online English tutor for academic preparation</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>eTalk Live Tutoring</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>Ireland</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>https://ie.linkedin.com/jobs/view/online-english-tutor-for-academic-preparation-at-etalk-live-tutoring-4074752957?position=36&amp;pageNum=0&amp;refId=pGzn1qNSTapY%2BTWS4voWOA%3D%3D&amp;trackingId=jF7xynx%2FXDnjWuvJT5WF%2Fw%3D%3D</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>LinkedIn</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>Found</t>
+        </is>
+      </c>
+      <c r="H129" t="inlineStr"/>
+      <c r="I129" t="inlineStr"/>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>2025-07-31</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>Sales Assistant (Part Time - 16 Hours Per Week)</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>Sally Europe</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>Ireland</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>https://ie.linkedin.com/jobs/view/sales-assistant-part-time-16-hours-per-week-at-sally-europe-4272012508?position=37&amp;pageNum=0&amp;refId=pGzn1qNSTapY%2BTWS4voWOA%3D%3D&amp;trackingId=URVIB%2Bp1nWWIAJ%2FLOaC%2Bww%3D%3D</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>LinkedIn</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>Found</t>
+        </is>
+      </c>
+      <c r="H130" t="inlineStr"/>
+      <c r="I130" t="inlineStr"/>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>2025-07-31</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>Bookkeeper's Nationwide</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>Ifac Ireland</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>Ireland</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>https://ie.linkedin.com/jobs/view/bookkeeper-s-nationwide-at-ifac-ireland-3756215836?position=38&amp;pageNum=0&amp;refId=pGzn1qNSTapY%2BTWS4voWOA%3D%3D&amp;trackingId=Oorm%2Bm2CvgTNftFfBu4jOg%3D%3D</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>LinkedIn</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>Found</t>
+        </is>
+      </c>
+      <c r="H131" t="inlineStr"/>
+      <c r="I131" t="inlineStr"/>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>2025-07-31</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>Learning And Development Specialist</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>HR Search</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>Ireland</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>https://ie.linkedin.com/jobs/view/learning-and-development-specialist-at-hr-search-4274767833?position=39&amp;pageNum=0&amp;refId=pGzn1qNSTapY%2BTWS4voWOA%3D%3D&amp;trackingId=CLdmOkisMxGCxz58%2FKGZMA%3D%3D</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>LinkedIn</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>Found</t>
+        </is>
+      </c>
+      <c r="H132" t="inlineStr"/>
+      <c r="I132" t="inlineStr"/>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>2025-07-31</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>Tutor</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>Filo</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>Ireland</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>https://ie.linkedin.com/jobs/view/tutor-at-filo-4262205366?position=40&amp;pageNum=0&amp;refId=pGzn1qNSTapY%2BTWS4voWOA%3D%3D&amp;trackingId=%2BKGC8p5dPpaFG3%2BnyJJb8A%3D%3D</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>LinkedIn</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>Found</t>
+        </is>
+      </c>
+      <c r="H133" t="inlineStr"/>
+      <c r="I133" t="inlineStr"/>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>2025-07-31</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>Human Resources Business Partner</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>SureSkills</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>Ireland</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>https://ie.linkedin.com/jobs/view/human-resources-business-partner-at-sureskills-4268604377?position=41&amp;pageNum=0&amp;refId=pGzn1qNSTapY%2BTWS4voWOA%3D%3D&amp;trackingId=BjyEAg1Vrr8Ljbg25FVB8A%3D%3D</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>LinkedIn</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>Found</t>
+        </is>
+      </c>
+      <c r="H134" t="inlineStr"/>
+      <c r="I134" t="inlineStr"/>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>2025-07-31</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>Cleaner</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>Sodexo</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>Ireland</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>https://ie.linkedin.com/jobs/view/cleaner-at-sodexo-4265199073?position=42&amp;pageNum=0&amp;refId=pGzn1qNSTapY%2BTWS4voWOA%3D%3D&amp;trackingId=bMY6pJYEJjIOBaiWPR5xeg%3D%3D</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>LinkedIn</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>Found</t>
+        </is>
+      </c>
+      <c r="H135" t="inlineStr"/>
+      <c r="I135" t="inlineStr"/>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>2025-07-31</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>Sales Associate - Dublin, Ireland</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>Jimmy Choo</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>Ireland</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>https://ie.linkedin.com/jobs/view/sales-associate-dublin-ireland-at-jimmy-choo-4272141845?position=45&amp;pageNum=0&amp;refId=pGzn1qNSTapY%2BTWS4voWOA%3D%3D&amp;trackingId=HmlUQrpTmRY17UFmbFEsqw%3D%3D</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>LinkedIn</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>Found</t>
+        </is>
+      </c>
+      <c r="H136" t="inlineStr"/>
+      <c r="I136" t="inlineStr"/>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>2025-07-31</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>Cleaner</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>SBFM</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>Ireland</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>https://ie.linkedin.com/jobs/view/cleaner-at-sbfm-4256940251?position=46&amp;pageNum=0&amp;refId=pGzn1qNSTapY%2BTWS4voWOA%3D%3D&amp;trackingId=3YD14yHBkL9tR8ouc5WYnA%3D%3D</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>LinkedIn</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>Found</t>
+        </is>
+      </c>
+      <c r="H137" t="inlineStr"/>
+      <c r="I137" t="inlineStr"/>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>2025-07-31</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>Food &amp; Beverage Assistant</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>Sheen Falls Lodge</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>Ireland</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>https://ie.linkedin.com/jobs/view/food-beverage-assistant-at-sheen-falls-lodge-4274241135?position=47&amp;pageNum=0&amp;refId=pGzn1qNSTapY%2BTWS4voWOA%3D%3D&amp;trackingId=6K7lMEOFCkHqtnHA1NIbug%3D%3D</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>LinkedIn</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>Found</t>
+        </is>
+      </c>
+      <c r="H138" t="inlineStr"/>
+      <c r="I138" t="inlineStr"/>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>2025-07-31</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>Healthcare Assistants</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>Contact Care Ltd</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>Ireland</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>https://ie.linkedin.com/jobs/view/healthcare-assistants-at-contact-care-ltd-4264600205?position=49&amp;pageNum=0&amp;refId=pGzn1qNSTapY%2BTWS4voWOA%3D%3D&amp;trackingId=PnrILOmenq%2BxeiKSy7Srtg%3D%3D</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>LinkedIn</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>Found</t>
+        </is>
+      </c>
+      <c r="H139" t="inlineStr"/>
+      <c r="I139" t="inlineStr"/>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>2025-07-31</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>Part time Merchandiser</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>CPM Ireland</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>Ireland</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>https://ie.linkedin.com/jobs/view/part-time-merchandiser-at-cpm-ireland-4275604703?position=50&amp;pageNum=0&amp;refId=pGzn1qNSTapY%2BTWS4voWOA%3D%3D&amp;trackingId=qCYhCej9sbdSyo0dQVR6Aw%3D%3D</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>LinkedIn</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>Found</t>
+        </is>
+      </c>
+      <c r="H140" t="inlineStr"/>
+      <c r="I140" t="inlineStr"/>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>2025-07-31</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>Clinical Coordinator ROI</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>HealthHero</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>Ireland</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>https://ie.linkedin.com/jobs/view/clinical-coordinator-roi-at-healthhero-4271405584?position=51&amp;pageNum=0&amp;refId=pGzn1qNSTapY%2BTWS4voWOA%3D%3D&amp;trackingId=lMkjsiXFyv0TZwWdBB%2BcfA%3D%3D</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>LinkedIn</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>Found</t>
+        </is>
+      </c>
+      <c r="H141" t="inlineStr"/>
+      <c r="I141" t="inlineStr"/>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>2025-07-31</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>Office Administrator (Part-time)</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>Harry Walsh Associates Ltd.</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>Ireland</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>https://ie.linkedin.com/jobs/view/office-administrator-part-time-at-harry-walsh-associates-ltd-4277649968?position=52&amp;pageNum=0&amp;refId=pGzn1qNSTapY%2BTWS4voWOA%3D%3D&amp;trackingId=xjJQIXbUxLlVX1E%2FU9NpEQ%3D%3D</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>LinkedIn</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>Found</t>
+        </is>
+      </c>
+      <c r="H142" t="inlineStr"/>
+      <c r="I142" t="inlineStr"/>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>2025-07-31</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>Event Officer</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>ISQua</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>Ireland</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>https://ie.linkedin.com/jobs/view/event-officer-at-isqua-4268576662?position=54&amp;pageNum=0&amp;refId=pGzn1qNSTapY%2BTWS4voWOA%3D%3D&amp;trackingId=rDEWZ%2Bq7D1PpgQJTAUTm3w%3D%3D</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>LinkedIn</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>Found</t>
+        </is>
+      </c>
+      <c r="H143" t="inlineStr"/>
+      <c r="I143" t="inlineStr"/>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>2025-07-31</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>Healthcare Assistant (HCA) – (Macroom) | From €14.79 per hour</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>CareChoice Group Ireland</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>Ireland</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>https://ie.linkedin.com/jobs/view/healthcare-assistant-hca-%E2%80%93-macroom-from-%E2%82%AC14-79-per-hour-at-carechoice-group-ireland-4261941352?position=55&amp;pageNum=0&amp;refId=pGzn1qNSTapY%2BTWS4voWOA%3D%3D&amp;trackingId=mFNxnCn4pDZsltteh3bAxw%3D%3D</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>LinkedIn</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>Found</t>
+        </is>
+      </c>
+      <c r="H144" t="inlineStr"/>
+      <c r="I144" t="inlineStr"/>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>2025-07-31</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>Project Scheduler</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>Fastnet</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>Ireland</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>https://ie.linkedin.com/jobs/view/project-scheduler-at-fastnet-4263477640?position=56&amp;pageNum=0&amp;refId=pGzn1qNSTapY%2BTWS4voWOA%3D%3D&amp;trackingId=nWV8ZbgK7r0Id7k%2Bl9GNAA%3D%3D</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>LinkedIn</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>Found</t>
+        </is>
+      </c>
+      <c r="H145" t="inlineStr"/>
+      <c r="I145" t="inlineStr"/>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>2025-07-31</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>Online Math tutor for Secondary School academic preparation</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>eTalk Live Tutoring</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>Ireland</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>https://ie.linkedin.com/jobs/view/online-math-tutor-for-secondary-school-academic-preparation-at-etalk-live-tutoring-3952256145?position=57&amp;pageNum=0&amp;refId=pGzn1qNSTapY%2BTWS4voWOA%3D%3D&amp;trackingId=HaP%2F%2FacrKjKhtb8tlqJXqA%3D%3D</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>LinkedIn</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>Found</t>
+        </is>
+      </c>
+      <c r="H146" t="inlineStr"/>
+      <c r="I146" t="inlineStr"/>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>2025-07-31</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>8hr Part Time Sales Assistant, Kurt Geiger, Brown Thomas Dundrum</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>Kurt Geiger</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>Ireland</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>https://ie.linkedin.com/jobs/view/8hr-part-time-sales-assistant-kurt-geiger-brown-thomas-dundrum-at-kurt-geiger-4276075622?position=2&amp;pageNum=0&amp;refId=WFOI38ihwx91vsc1v3oYEg%3D%3D&amp;trackingId=43nvfgtb6HFUTW38nIOYmg%3D%3D</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>LinkedIn</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>Found</t>
+        </is>
+      </c>
+      <c r="H147" t="inlineStr"/>
+      <c r="I147" t="inlineStr"/>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>2025-07-31</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>Sales Assistant - Full &amp; Part Time</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>SPAR Ireland</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>Ireland</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>https://ie.linkedin.com/jobs/view/sales-assistant-full-part-time-at-spar-ireland-4238473806?position=3&amp;pageNum=0&amp;refId=WFOI38ihwx91vsc1v3oYEg%3D%3D&amp;trackingId=sGScGHobJzI1BJSVsrSDVg%3D%3D</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>LinkedIn</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>Found</t>
+        </is>
+      </c>
+      <c r="H148" t="inlineStr"/>
+      <c r="I148" t="inlineStr"/>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>2025-07-31</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>Sales Assistant - Dundalk</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>Smyths Toys Superstores</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>Ireland</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>https://ie.linkedin.com/jobs/view/sales-assistant-dundalk-at-smyths-toys-superstores-4266733136?position=4&amp;pageNum=0&amp;refId=WFOI38ihwx91vsc1v3oYEg%3D%3D&amp;trackingId=C%2Bbn3%2FYz1H6BZCniNPOasQ%3D%3D</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>LinkedIn</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>Found</t>
+        </is>
+      </c>
+      <c r="H149" t="inlineStr"/>
+      <c r="I149" t="inlineStr"/>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>2025-07-31</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>Sales Assistant (Part Time - 15 Hours Per Week)</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>Sally Europe</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>Ireland</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>https://ie.linkedin.com/jobs/view/sales-assistant-part-time-15-hours-per-week-at-sally-europe-4267778528?position=5&amp;pageNum=0&amp;refId=WFOI38ihwx91vsc1v3oYEg%3D%3D&amp;trackingId=IKoXRNUbKJIest383dRnpA%3D%3D</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>LinkedIn</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>Found</t>
+        </is>
+      </c>
+      <c r="H150" t="inlineStr"/>
+      <c r="I150" t="inlineStr"/>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>2025-07-31</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>Sales Assistant (Full &amp; Part Time)</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>SPAR Ireland</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>Ireland</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>https://ie.linkedin.com/jobs/view/sales-assistant-full-part-time-at-spar-ireland-4265936177?position=7&amp;pageNum=0&amp;refId=WFOI38ihwx91vsc1v3oYEg%3D%3D&amp;trackingId=wMLOtQboCKcCg9lJGaedEA%3D%3D</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>LinkedIn</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>Found</t>
+        </is>
+      </c>
+      <c r="H151" t="inlineStr"/>
+      <c r="I151" t="inlineStr"/>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>2025-07-31</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>Sales Assistant</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>Maxi Zoo Ireland Ltd</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>Ireland</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>https://ie.linkedin.com/jobs/view/sales-assistant-at-maxi-zoo-ireland-ltd-4265621917?position=8&amp;pageNum=0&amp;refId=WFOI38ihwx91vsc1v3oYEg%3D%3D&amp;trackingId=UFIbCQEK%2B%2BewPy3RhPA9dA%3D%3D</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>LinkedIn</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>Found</t>
+        </is>
+      </c>
+      <c r="H152" t="inlineStr"/>
+      <c r="I152" t="inlineStr"/>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>2025-07-31</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>Sales Assistant (Part Time - 20 Hours Per Week)</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>Sally Europe</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>Ireland</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>https://ie.linkedin.com/jobs/view/sales-assistant-part-time-20-hours-per-week-at-sally-europe-4267777555?position=9&amp;pageNum=0&amp;refId=WFOI38ihwx91vsc1v3oYEg%3D%3D&amp;trackingId=BMnbYQ4q3panESDDiUOAyw%3D%3D</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>LinkedIn</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>Found</t>
+        </is>
+      </c>
+      <c r="H153" t="inlineStr"/>
+      <c r="I153" t="inlineStr"/>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>2025-07-31</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>Sales Assistant (Part Time - 24 Hours Per Week)</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>Sally Europe</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>Ireland</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>https://ie.linkedin.com/jobs/view/sales-assistant-part-time-24-hours-per-week-at-sally-europe-4267771988?position=10&amp;pageNum=0&amp;refId=WFOI38ihwx91vsc1v3oYEg%3D%3D&amp;trackingId=nsIRp8n58S981RkfanGmkA%3D%3D</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>LinkedIn</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>Found</t>
+        </is>
+      </c>
+      <c r="H154" t="inlineStr"/>
+      <c r="I154" t="inlineStr"/>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>2025-07-31</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>Sales Assistant (Part Time - 20 Hours Per Week - 3 Month FTC)</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>Sally Europe</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>Ireland</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>https://ie.linkedin.com/jobs/view/sales-assistant-part-time-20-hours-per-week-3-month-ftc-at-sally-europe-4271545524?position=11&amp;pageNum=0&amp;refId=WFOI38ihwx91vsc1v3oYEg%3D%3D&amp;trackingId=dnDG7vlAFX%2BQhGN%2Bg5AePA%3D%3D</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>LinkedIn</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>Found</t>
+        </is>
+      </c>
+      <c r="H155" t="inlineStr"/>
+      <c r="I155" t="inlineStr"/>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>2025-07-31</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>Homewares Sales Assistant</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>Harvey Norman Ireland</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>Ireland</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>https://ie.linkedin.com/jobs/view/homewares-sales-assistant-at-harvey-norman-ireland-4275874953?position=12&amp;pageNum=0&amp;refId=WFOI38ihwx91vsc1v3oYEg%3D%3D&amp;trackingId=UdgK6uTcA0wHm8doCokq%2Fg%3D%3D</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>LinkedIn</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>Found</t>
+        </is>
+      </c>
+      <c r="H156" t="inlineStr"/>
+      <c r="I156" t="inlineStr"/>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>2025-07-31</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>Retail Sales Assistants</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>Choice Stores</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>Ireland</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>https://ie.linkedin.com/jobs/view/retail-sales-assistants-at-choice-stores-4271543962?position=13&amp;pageNum=0&amp;refId=WFOI38ihwx91vsc1v3oYEg%3D%3D&amp;trackingId=pAaf66OmK82OM8qXC1OI9g%3D%3D</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>LinkedIn</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>Found</t>
+        </is>
+      </c>
+      <c r="H157" t="inlineStr"/>
+      <c r="I157" t="inlineStr"/>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>2025-07-31</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>Part Time Sales Assistant - Lucan</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>O'Briens Wines</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>Ireland</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>https://ie.linkedin.com/jobs/view/part-time-sales-assistant-lucan-at-o-briens-wines-4273262424?position=16&amp;pageNum=0&amp;refId=WFOI38ihwx91vsc1v3oYEg%3D%3D&amp;trackingId=Hx3xxVC%2F4H0rQTEdrr0F%2Bg%3D%3D</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>LinkedIn</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>Found</t>
+        </is>
+      </c>
+      <c r="H158" t="inlineStr"/>
+      <c r="I158" t="inlineStr"/>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>2025-07-31</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>Sales Assistant - Brown Thomas</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>SMCP – Sandro, Maje, Claudie Pierlot, Fursac</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>Ireland</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>https://ie.linkedin.com/jobs/view/sales-assistant-brown-thomas-at-smcp-%E2%80%93-sandro-maje-claudie-pierlot-fursac-4268210116?position=17&amp;pageNum=0&amp;refId=WFOI38ihwx91vsc1v3oYEg%3D%3D&amp;trackingId=Px5tu2%2FR6%2BHA6YHZNygV7g%3D%3D</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>LinkedIn</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>Found</t>
+        </is>
+      </c>
+      <c r="H159" t="inlineStr"/>
+      <c r="I159" t="inlineStr"/>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>2025-07-31</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>SALES ASSISTANT - PART TIME - WILTON</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>Jump Juice</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>Ireland</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>https://ie.linkedin.com/jobs/view/sales-assistant-part-time-wilton-at-jump-juice-4273223062?position=21&amp;pageNum=0&amp;refId=WFOI38ihwx91vsc1v3oYEg%3D%3D&amp;trackingId=LQlgas0JRKyHjgySeVxSzQ%3D%3D</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>LinkedIn</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>Found</t>
+        </is>
+      </c>
+      <c r="H160" t="inlineStr"/>
+      <c r="I160" t="inlineStr"/>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>2025-07-31</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>Sales Assistant / Driver</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>Crown Paints</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>Ireland</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>https://ie.linkedin.com/jobs/view/sales-assistant-driver-at-crown-paints-4268186926?position=23&amp;pageNum=0&amp;refId=WFOI38ihwx91vsc1v3oYEg%3D%3D&amp;trackingId=A6VexMq5thmoKRDFMmKB4A%3D%3D</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>LinkedIn</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>Found</t>
+        </is>
+      </c>
+      <c r="H161" t="inlineStr"/>
+      <c r="I161" t="inlineStr"/>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>2025-07-31</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>Retail Sales Assistant</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>Choice Stores</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>Ireland</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>https://ie.linkedin.com/jobs/view/retail-sales-assistant-at-choice-stores-4273264273?position=26&amp;pageNum=0&amp;refId=WFOI38ihwx91vsc1v3oYEg%3D%3D&amp;trackingId=yDIcpZ2PnfDAMztSibGfgw%3D%3D</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>LinkedIn</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>Found</t>
+        </is>
+      </c>
+      <c r="H162" t="inlineStr"/>
+      <c r="I162" t="inlineStr"/>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>2025-07-31</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>Sales Assistant-Athlone</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>Smyths Toys Superstores</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>Ireland</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>https://ie.linkedin.com/jobs/view/sales-assistant-athlone-at-smyths-toys-superstores-4278515827?position=27&amp;pageNum=0&amp;refId=WFOI38ihwx91vsc1v3oYEg%3D%3D&amp;trackingId=w3l5e896wgV9x%2FMqDRf3IA%3D%3D</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>LinkedIn</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>Found</t>
+        </is>
+      </c>
+      <c r="H163" t="inlineStr"/>
+      <c r="I163" t="inlineStr"/>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>2025-07-31</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>Sales Assistant</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>Centra</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>Ireland</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>https://ie.linkedin.com/jobs/view/sales-assistant-at-centra-4273776806?position=28&amp;pageNum=0&amp;refId=WFOI38ihwx91vsc1v3oYEg%3D%3D&amp;trackingId=38k%2FnOLor39Ev6eREO72XA%3D%3D</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>LinkedIn</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>Found</t>
+        </is>
+      </c>
+      <c r="H164" t="inlineStr"/>
+      <c r="I164" t="inlineStr"/>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>2025-07-31</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>Part Time Sales Assistant</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>Frasers Group</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>Ireland</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>https://ie.linkedin.com/jobs/view/part-time-sales-assistant-at-frasers-group-4173995199?position=29&amp;pageNum=0&amp;refId=WFOI38ihwx91vsc1v3oYEg%3D%3D&amp;trackingId=sva1rpO1XuOKW6zfy174gA%3D%3D</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>LinkedIn</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>Found</t>
+        </is>
+      </c>
+      <c r="H165" t="inlineStr"/>
+      <c r="I165" t="inlineStr"/>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>2025-07-31</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>Sales Assistant, (Part Time) Flexi, Mountmellick, Co. Laois</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>SPAR Ireland</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>Ireland</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>https://ie.linkedin.com/jobs/view/sales-assistant-part-time-flexi-mountmellick-co-laois-at-spar-ireland-4268154418?position=31&amp;pageNum=0&amp;refId=WFOI38ihwx91vsc1v3oYEg%3D%3D&amp;trackingId=I6Zplbk2molmwQ53U7vk2Q%3D%3D</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>LinkedIn</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>Found</t>
+        </is>
+      </c>
+      <c r="H166" t="inlineStr"/>
+      <c r="I166" t="inlineStr"/>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>2025-07-31</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>Account Assistant</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>Born Clothing</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>Ireland</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>https://ie.linkedin.com/jobs/view/account-assistant-at-born-clothing-4069769258?position=35&amp;pageNum=0&amp;refId=WFOI38ihwx91vsc1v3oYEg%3D%3D&amp;trackingId=Fpy6vW%2FHn9dU1s7sSublEQ%3D%3D</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>LinkedIn</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>Found</t>
+        </is>
+      </c>
+      <c r="H167" t="inlineStr"/>
+      <c r="I167" t="inlineStr"/>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>2025-07-31</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>30hr Part Time Sales Assistant, Kurt Geiger, Brown Thomas Galway</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>Kurt Geiger</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>Ireland</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>https://ie.linkedin.com/jobs/view/30hr-part-time-sales-assistant-kurt-geiger-brown-thomas-galway-at-kurt-geiger-4236128292?position=36&amp;pageNum=0&amp;refId=WFOI38ihwx91vsc1v3oYEg%3D%3D&amp;trackingId=0To4aDvDqCX1qtT5tJ6P6A%3D%3D</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>LinkedIn</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>Found</t>
+        </is>
+      </c>
+      <c r="H168" t="inlineStr"/>
+      <c r="I168" t="inlineStr"/>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>2025-07-31</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>Part Time Sale Assistant - Quinsboro Bray</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>O'Briens Wines</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>Ireland</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>https://ie.linkedin.com/jobs/view/part-time-sale-assistant-quinsboro-bray-at-o-briens-wines-4256392894?position=37&amp;pageNum=0&amp;refId=WFOI38ihwx91vsc1v3oYEg%3D%3D&amp;trackingId=os9Er5YhnWjlCh0kgcBA2w%3D%3D</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>LinkedIn</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>Found</t>
+        </is>
+      </c>
+      <c r="H169" t="inlineStr"/>
+      <c r="I169" t="inlineStr"/>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>2025-07-31</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>Sales Assistant - Part Time</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>Superdry</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>Ireland</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>https://ie.linkedin.com/jobs/view/sales-assistant-part-time-at-superdry-4264359460?position=39&amp;pageNum=0&amp;refId=WFOI38ihwx91vsc1v3oYEg%3D%3D&amp;trackingId=0mVgKGHDXXgD9p4gp95jeg%3D%3D</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>LinkedIn</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>Found</t>
+        </is>
+      </c>
+      <c r="H170" t="inlineStr"/>
+      <c r="I170" t="inlineStr"/>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>2025-07-31</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>SALES ASSISTANT - PART TIME - GALWAY</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>Jump Juice</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>Ireland</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>https://ie.linkedin.com/jobs/view/sales-assistant-part-time-galway-at-jump-juice-4273224035?position=40&amp;pageNum=0&amp;refId=WFOI38ihwx91vsc1v3oYEg%3D%3D&amp;trackingId=83JPwel8Pgf60pXFtsHwXQ%3D%3D</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>LinkedIn</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>Found</t>
+        </is>
+      </c>
+      <c r="H171" t="inlineStr"/>
+      <c r="I171" t="inlineStr"/>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>2025-07-31</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>Sales Assistant (Part Time) Flexi, Tuam</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>SPAR Ireland</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>Ireland</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>https://ie.linkedin.com/jobs/view/sales-assistant-part-time-flexi-tuam-at-spar-ireland-4273383654?position=41&amp;pageNum=0&amp;refId=WFOI38ihwx91vsc1v3oYEg%3D%3D&amp;trackingId=mEyvrm4DD8cMIdOACfnV1Q%3D%3D</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>LinkedIn</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>Found</t>
+        </is>
+      </c>
+      <c r="H172" t="inlineStr"/>
+      <c r="I172" t="inlineStr"/>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>2025-07-31</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>OTC Sales Assistant</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>McCabes Pharmacy</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>Ireland</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>https://ie.linkedin.com/jobs/view/otc-sales-assistant-at-mccabes-pharmacy-4266249937?position=46&amp;pageNum=0&amp;refId=WFOI38ihwx91vsc1v3oYEg%3D%3D&amp;trackingId=8GKK0OQfAY4CWpv05NaDgQ%3D%3D</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>LinkedIn</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>Found</t>
+        </is>
+      </c>
+      <c r="H173" t="inlineStr"/>
+      <c r="I173" t="inlineStr"/>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>2025-07-31</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>Forever New, Sales Consultant, Part Time, Permanent</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>Brown Thomas Arnotts</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>Ireland</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>https://ie.linkedin.com/jobs/view/forever-new-sales-consultant-part-time-permanent-at-brown-thomas-arnotts-4247931372?position=49&amp;pageNum=0&amp;refId=WFOI38ihwx91vsc1v3oYEg%3D%3D&amp;trackingId=D9PFP5fDCAfpP%2FX2LHcWTQ%3D%3D</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>LinkedIn</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>Found</t>
+        </is>
+      </c>
+      <c r="H174" t="inlineStr"/>
+      <c r="I174" t="inlineStr"/>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>2025-07-31</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>Sales / Deli Assistant - Part Time</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>SPAR Ireland</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>Ireland</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>https://ie.linkedin.com/jobs/view/sales-deli-assistant-part-time-at-spar-ireland-4274035600?position=50&amp;pageNum=0&amp;refId=WFOI38ihwx91vsc1v3oYEg%3D%3D&amp;trackingId=Y91TRENhXIb65g9jGenEKQ%3D%3D</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>LinkedIn</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>Found</t>
+        </is>
+      </c>
+      <c r="H175" t="inlineStr"/>
+      <c r="I175" t="inlineStr"/>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>2025-07-31</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>JUVI &amp; DAYT, Sales Consultant, Part Time, Permanent</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>Brown Thomas Arnotts</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>Ireland</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>https://ie.linkedin.com/jobs/view/juvi-dayt-sales-consultant-part-time-permanent-at-brown-thomas-arnotts-4267821420?position=53&amp;pageNum=0&amp;refId=WFOI38ihwx91vsc1v3oYEg%3D%3D&amp;trackingId=YCLAk%2FDiOwoAstgag1L9HA%3D%3D</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>LinkedIn</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>Found</t>
+        </is>
+      </c>
+      <c r="H176" t="inlineStr"/>
+      <c r="I176" t="inlineStr"/>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>2025-07-31</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>SALE ASSISTANT - PART TIME - MAHON</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>Jump Juice</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>Ireland</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>https://ie.linkedin.com/jobs/view/sale-assistant-part-time-mahon-at-jump-juice-4273220446?position=55&amp;pageNum=0&amp;refId=WFOI38ihwx91vsc1v3oYEg%3D%3D&amp;trackingId=QABvFpEwVWhH4fcExGPFDw%3D%3D</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>LinkedIn</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>Found</t>
+        </is>
+      </c>
+      <c r="H177" t="inlineStr"/>
+      <c r="I177" t="inlineStr"/>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>2025-07-31</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>Retail Assistant</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>Musgrave</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>Ireland</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>https://ie.linkedin.com/jobs/view/retail-assistant-at-musgrave-4277654803?position=56&amp;pageNum=0&amp;refId=WFOI38ihwx91vsc1v3oYEg%3D%3D&amp;trackingId=Z9hUfd%2FHvBtFeeAGXcFM0g%3D%3D</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>LinkedIn</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>Found</t>
+        </is>
+      </c>
+      <c r="H178" t="inlineStr"/>
+      <c r="I178" t="inlineStr"/>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>2025-07-31</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>Booking Specialist</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>Ayvens</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>Ireland</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>https://ie.linkedin.com/jobs/view/booking-specialist-at-ayvens-4263061967?position=59&amp;pageNum=0&amp;refId=WFOI38ihwx91vsc1v3oYEg%3D%3D&amp;trackingId=cryR%2F8Yn9SbmfXHoaYlO0g%3D%3D</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>LinkedIn</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>Found</t>
+        </is>
+      </c>
+      <c r="H179" t="inlineStr"/>
+      <c r="I179" t="inlineStr"/>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>2025-07-31</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>12hr Part Time Sales Assistant, Kurt Geiger, Brown Thomas Cork</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>Kurt Geiger</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>Ireland</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>https://ie.linkedin.com/jobs/view/12hr-part-time-sales-assistant-kurt-geiger-brown-thomas-cork-at-kurt-geiger-4270694908?position=60&amp;pageNum=0&amp;refId=WFOI38ihwx91vsc1v3oYEg%3D%3D&amp;trackingId=%2Bn7mY6zoGjx9RB5SRkEaQw%3D%3D</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>LinkedIn</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>Found</t>
+        </is>
+      </c>
+      <c r="H180" t="inlineStr"/>
+      <c r="I180" t="inlineStr"/>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>2025-07-31</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>Full Stack Engineer</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>Full Stack Energy</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>Ireland</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>https://ie.linkedin.com/jobs/view/full-stack-engineer-at-full-stack-energy-4102988989?position=59&amp;pageNum=0&amp;refId=Yy4PrcV7%2Fb1uNRs%2BBWNluw%3D%3D&amp;trackingId=Sv%2BI5AoGTS45fiRfpnyc7w%3D%3D</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>LinkedIn</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>Found</t>
+        </is>
+      </c>
+      <c r="H181" t="inlineStr"/>
+      <c r="I181" t="inlineStr"/>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/job_applications.xlsx
+++ b/data/job_applications.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K72"/>
+  <dimension ref="A1:K115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3401,6 +3401,1769 @@
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
     </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>2025-08-01</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Data Scientist, Marketing</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Google</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Ireland</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>https://ie.linkedin.com/jobs/view/data-scientist-marketing-at-google-4269043226?position=1&amp;pageNum=0&amp;refId=65sS0iKOXA%2FRY21tg1YTdg%3D%3D&amp;trackingId=VKuJhIqt93bussd39b1bdw%3D%3D</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>LinkedIn</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>Found</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr"/>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>2025-08-01</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Data Scientist, Product Analytics</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Meta</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Ireland</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>https://ie.linkedin.com/jobs/view/data-scientist-product-analytics-at-meta-4120826276?position=2&amp;pageNum=0&amp;refId=65sS0iKOXA%2FRY21tg1YTdg%3D%3D&amp;trackingId=asXWDYtDq32Cl8F6N%2BqJfg%3D%3D</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>LinkedIn</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>Found</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr"/>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>2025-08-01</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Data Scientist</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>CalypsoAI</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Ireland</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>https://ie.linkedin.com/jobs/view/data-scientist-at-calypsoai-4210651756?position=3&amp;pageNum=0&amp;refId=65sS0iKOXA%2FRY21tg1YTdg%3D%3D&amp;trackingId=bDJsB3AtBG8GbsVpDrNRZA%3D%3D</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>LinkedIn</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>Found</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr"/>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>2025-08-01</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Data Scientist</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>CarTrawler</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Ireland</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>https://ie.linkedin.com/jobs/view/data-scientist-at-cartrawler-4252986800?position=4&amp;pageNum=0&amp;refId=65sS0iKOXA%2FRY21tg1YTdg%3D%3D&amp;trackingId=mIT1hMdBuVqzDKAckcolWQ%3D%3D</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>LinkedIn</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>Found</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>2025-08-01</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Machine Learning Engineer</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>CarTrawler</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Ireland</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>https://ie.linkedin.com/jobs/view/machine-learning-engineer-at-cartrawler-4269863209?position=5&amp;pageNum=0&amp;refId=65sS0iKOXA%2FRY21tg1YTdg%3D%3D&amp;trackingId=v%2FtYfXlWaSEbF1Tguovj7w%3D%3D</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>LinkedIn</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>Found</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>2025-08-01</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Data Scientist - Forecasting</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Signify Health Ireland, part of CVS Health</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Ireland</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>https://ie.linkedin.com/jobs/view/data-scientist-forecasting-at-signify-health-ireland-part-of-cvs-health-4267820674?position=6&amp;pageNum=0&amp;refId=65sS0iKOXA%2FRY21tg1YTdg%3D%3D&amp;trackingId=ZGOC4IlJUlGynxxohGRGbw%3D%3D</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>LinkedIn</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>Found</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>2025-08-01</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Data Scientist, Infrastructure, Marketing</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Google</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Ireland</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>https://ie.linkedin.com/jobs/view/data-scientist-infrastructure-marketing-at-google-4269043227?position=7&amp;pageNum=0&amp;refId=65sS0iKOXA%2FRY21tg1YTdg%3D%3D&amp;trackingId=9njfCRsBcUNlq835WBJwoQ%3D%3D</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>LinkedIn</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>Found</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr"/>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>2025-08-01</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Applied Scientist</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Docusign</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Ireland</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>https://ie.linkedin.com/jobs/view/applied-scientist-at-docusign-4217492452?position=8&amp;pageNum=0&amp;refId=65sS0iKOXA%2FRY21tg1YTdg%3D%3D&amp;trackingId=vW1vIaaln6%2FEJdTZDyyudg%3D%3D</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>LinkedIn</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>Found</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr"/>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>2025-08-01</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Machine Learning Engineer (100% remote)</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Tether.io</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Ireland</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>https://ie.linkedin.com/jobs/view/machine-learning-engineer-100%25-remote-at-tether-io-4275577409?position=9&amp;pageNum=0&amp;refId=65sS0iKOXA%2FRY21tg1YTdg%3D%3D&amp;trackingId=ruAL41bGDXvJguQKkDcwnw%3D%3D</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>LinkedIn</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>Found</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr"/>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>2025-08-01</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Data Scientist</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Hertz Car Sales</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Ireland</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>https://ie.linkedin.com/jobs/view/data-scientist-at-hertz-car-sales-4269696735?position=10&amp;pageNum=0&amp;refId=65sS0iKOXA%2FRY21tg1YTdg%3D%3D&amp;trackingId=aJErzYKTUGiaza8QgVzA4g%3D%3D</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>LinkedIn</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>Found</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr"/>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>2025-08-01</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Data Scientist</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Stripe</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>Ireland</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>https://ie.linkedin.com/jobs/view/data-scientist-at-stripe-4252530726?position=11&amp;pageNum=0&amp;refId=65sS0iKOXA%2FRY21tg1YTdg%3D%3D&amp;trackingId=UUUIOy2%2FFNFqsZgp12g%2FYg%3D%3D</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>LinkedIn</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>Found</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr"/>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>2025-08-01</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Junior AI Data Scientist</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Equifax</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Ireland</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>https://ie.linkedin.com/jobs/view/junior-ai-data-scientist-at-equifax-4277177515?position=15&amp;pageNum=0&amp;refId=65sS0iKOXA%2FRY21tg1YTdg%3D%3D&amp;trackingId=ihY9XovYv1671%2FtrH8qaDw%3D%3D</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>LinkedIn</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>Found</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr"/>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>2025-08-01</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Data Scientist</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Aon</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Ireland</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>https://ie.linkedin.com/jobs/view/data-scientist-at-aon-4263772542?position=16&amp;pageNum=0&amp;refId=65sS0iKOXA%2FRY21tg1YTdg%3D%3D&amp;trackingId=biQK%2B3VuK%2F8aNn7iW0hvng%3D%3D</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>LinkedIn</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>Found</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr"/>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>2025-08-01</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Data Scientist</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Hertz</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Ireland</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>https://ie.linkedin.com/jobs/view/data-scientist-at-hertz-4269621438?position=17&amp;pageNum=0&amp;refId=65sS0iKOXA%2FRY21tg1YTdg%3D%3D&amp;trackingId=eJAR53fGktRRHW5HL3wHoA%3D%3D</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>LinkedIn</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>Found</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr"/>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>2025-08-01</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Machine Learning Engineer</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Nory</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Ireland</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>https://ie.linkedin.com/jobs/view/machine-learning-engineer-at-nory-4278653981?position=20&amp;pageNum=0&amp;refId=65sS0iKOXA%2FRY21tg1YTdg%3D%3D&amp;trackingId=gZBOSYgOL0SyItvYZI6DKQ%3D%3D</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>LinkedIn</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>Found</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr"/>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>2025-08-01</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Business Data Scientist, gTech Ads</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Google</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Ireland</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>https://ie.linkedin.com/jobs/view/business-data-scientist-gtech-ads-at-google-4271323717?position=21&amp;pageNum=0&amp;refId=65sS0iKOXA%2FRY21tg1YTdg%3D%3D&amp;trackingId=FxrLSlWtlqmeWoGyy%2BHD7Q%3D%3D</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>LinkedIn</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>Found</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr"/>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>2025-08-01</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Data Scientist</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>SITA</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>Ireland</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>https://ie.linkedin.com/jobs/view/data-scientist-at-sita-4239390975?position=23&amp;pageNum=0&amp;refId=65sS0iKOXA%2FRY21tg1YTdg%3D%3D&amp;trackingId=XtooIqnOCR4vCCOki9AGQw%3D%3D</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>LinkedIn</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>Found</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr"/>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>2025-08-01</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>R&amp;D Engineer</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>TOMRA</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Ireland</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>https://ie.linkedin.com/jobs/view/r-d-engineer-at-tomra-4271607734?position=24&amp;pageNum=0&amp;refId=65sS0iKOXA%2FRY21tg1YTdg%3D%3D&amp;trackingId=LZeff9JdfWogDxEQ%2BSdHnw%3D%3D</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>LinkedIn</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>Found</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr"/>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>2025-08-01</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Data Scientist</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Optum</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>Ireland</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>https://ie.linkedin.com/jobs/view/data-scientist-at-optum-4275795463?position=25&amp;pageNum=0&amp;refId=65sS0iKOXA%2FRY21tg1YTdg%3D%3D&amp;trackingId=coeVKx9WWwG8RdHC6GoxhA%3D%3D</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>LinkedIn</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>Found</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr"/>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>2025-08-01</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Junior AI Data Scientist (Fixed Term Contract)</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Equifax</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>Ireland</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>https://ie.linkedin.com/jobs/view/junior-ai-data-scientist-fixed-term-contract-at-equifax-4277179355?position=27&amp;pageNum=0&amp;refId=65sS0iKOXA%2FRY21tg1YTdg%3D%3D&amp;trackingId=npQQiW08eSSu8DPmnYPUdg%3D%3D</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>LinkedIn</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>Found</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr"/>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>2025-08-01</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Data Science and AI Engineer</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Fruition Group Ireland</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>Ireland</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>https://ie.linkedin.com/jobs/view/data-science-and-ai-engineer-at-fruition-group-ireland-4277191231?position=29&amp;pageNum=0&amp;refId=65sS0iKOXA%2FRY21tg1YTdg%3D%3D&amp;trackingId=AxFjUNNzE3bRzlRWHrW1LA%3D%3D</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>LinkedIn</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>Found</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr"/>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>2025-08-01</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>AI Engineer</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Compliance &amp; Risks</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>Ireland</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>https://ie.linkedin.com/jobs/view/ai-engineer-at-compliance-risks-4273765345?position=30&amp;pageNum=0&amp;refId=65sS0iKOXA%2FRY21tg1YTdg%3D%3D&amp;trackingId=La0JYhUgDkQuIyglEAOK%2Bg%3D%3D</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>LinkedIn</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>Found</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr"/>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>2025-08-01</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Data Scientist</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Ziff Davis</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>Ireland</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>https://ie.linkedin.com/jobs/view/data-scientist-at-ziff-davis-4232599993?position=31&amp;pageNum=0&amp;refId=65sS0iKOXA%2FRY21tg1YTdg%3D%3D&amp;trackingId=kGDs41H9W6qJl9ngHvxNQw%3D%3D</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>LinkedIn</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>Found</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr"/>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>2025-08-01</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Data Scientist - Dublin</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>PayPal</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>Ireland</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>https://ie.linkedin.com/jobs/view/data-scientist-dublin-at-paypal-4267462442?position=32&amp;pageNum=0&amp;refId=65sS0iKOXA%2FRY21tg1YTdg%3D%3D&amp;trackingId=sIKfjKf%2F5rnlMwCyzn%2F1CQ%3D%3D</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>LinkedIn</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>Found</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr"/>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>2025-08-01</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Machine Learning Engineer</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>E-Solutions</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>Ireland</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>https://ie.linkedin.com/jobs/view/machine-learning-engineer-at-e-solutions-4278930829?position=33&amp;pageNum=0&amp;refId=65sS0iKOXA%2FRY21tg1YTdg%3D%3D&amp;trackingId=mhrp0QxKOh%2BBRQx3B25g%2FQ%3D%3D</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>LinkedIn</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>Found</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr"/>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>2025-08-01</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Data Scientist – LLM Agent</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>PayPal</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>Ireland</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>https://ie.linkedin.com/jobs/view/data-scientist-%E2%80%93-llm-agent-at-paypal-4272881760?position=34&amp;pageNum=0&amp;refId=65sS0iKOXA%2FRY21tg1YTdg%3D%3D&amp;trackingId=M5wYM6Gq%2FvIogs586zWT9g%3D%3D</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>LinkedIn</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>Found</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr"/>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>2025-08-01</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>AI Engineer</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Paydock</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>Ireland</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>https://ie.linkedin.com/jobs/view/ai-engineer-at-paydock-4249289057?position=35&amp;pageNum=0&amp;refId=65sS0iKOXA%2FRY21tg1YTdg%3D%3D&amp;trackingId=DZuwM3jE3ij3xst5aF2q7A%3D%3D</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>LinkedIn</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>Found</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr"/>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>2025-08-01</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>AI Prompt Engineer</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>ActiveCampaign</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>Ireland</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>https://ie.linkedin.com/jobs/view/ai-prompt-engineer-at-activecampaign-4271461776?position=36&amp;pageNum=0&amp;refId=65sS0iKOXA%2FRY21tg1YTdg%3D%3D&amp;trackingId=8v672NXlw%2BuM8z9XPFdiag%3D%3D</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>LinkedIn</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>Found</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr"/>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>2025-08-01</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Research Engineer</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Tenable</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>Ireland</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>https://ie.linkedin.com/jobs/view/research-engineer-at-tenable-4233027919?position=39&amp;pageNum=0&amp;refId=65sS0iKOXA%2FRY21tg1YTdg%3D%3D&amp;trackingId=RwdwnBAGyKmexycTfUbN7w%3D%3D</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>LinkedIn</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>Found</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr"/>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>2025-08-01</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>AI Engineer</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Cytora</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>Ireland</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>https://ie.linkedin.com/jobs/view/ai-engineer-at-cytora-4184296076?position=40&amp;pageNum=0&amp;refId=65sS0iKOXA%2FRY21tg1YTdg%3D%3D&amp;trackingId=%2Bs4%2BRcZa3n%2Fag44pd%2BzuHw%3D%3D</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>LinkedIn</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>Found</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr"/>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>2025-08-01</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>AI Engineer</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>Ardmac</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>Ireland</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>https://ie.linkedin.com/jobs/view/ai-engineer-at-ardmac-4249161056?position=41&amp;pageNum=0&amp;refId=65sS0iKOXA%2FRY21tg1YTdg%3D%3D&amp;trackingId=RgG0wpJWyRv9KfmBHtsE0w%3D%3D</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>LinkedIn</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>Found</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr"/>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>2025-08-01</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Científico de datos</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>Gravitad</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>Ireland</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>https://ie.linkedin.com/jobs/view/cient%C3%ADfico-de-datos-at-gravitad-4270898376?position=42&amp;pageNum=0&amp;refId=65sS0iKOXA%2FRY21tg1YTdg%3D%3D&amp;trackingId=TBieZIqW2piJQeo3kuPiwQ%3D%3D</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>LinkedIn</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>Found</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr"/>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>2025-08-01</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>AI - Data Scientist</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>team.blue</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>Ireland</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>https://ie.linkedin.com/jobs/view/ai-data-scientist-at-team-blue-4233689349?position=44&amp;pageNum=0&amp;refId=65sS0iKOXA%2FRY21tg1YTdg%3D%3D&amp;trackingId=rhwoub4FnaiqMrZWWfcUcw%3D%3D</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>LinkedIn</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>Found</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr"/>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>2025-08-01</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Data Scientist</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>Eaton</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>Ireland</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>https://ie.linkedin.com/jobs/view/data-scientist-at-eaton-4272862733?position=46&amp;pageNum=0&amp;refId=65sS0iKOXA%2FRY21tg1YTdg%3D%3D&amp;trackingId=LJwOoVh1Izwr%2FXQS4PCxKw%3D%3D</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>LinkedIn</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>Found</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr"/>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>2025-08-01</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>AI Research Engineer (Pre-training)</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>Tether.io</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>Ireland</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>https://ie.linkedin.com/jobs/view/ai-research-engineer-pre-training-at-tether-io-4275571944?position=47&amp;pageNum=0&amp;refId=65sS0iKOXA%2FRY21tg1YTdg%3D%3D&amp;trackingId=O5%2B34GHpmJiBx1BaCeJ2mA%3D%3D</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>LinkedIn</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>Found</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr"/>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>2025-08-01</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Optimization Data Scientist</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>Bluecrux</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>Ireland</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>https://ie.linkedin.com/jobs/view/optimization-data-scientist-at-bluecrux-4249036303?position=51&amp;pageNum=0&amp;refId=65sS0iKOXA%2FRY21tg1YTdg%3D%3D&amp;trackingId=nUKvZd%2BF9ud6MAv1QzUfIQ%3D%3D</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>LinkedIn</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>Found</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr"/>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>2025-08-01</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Graduate Software Engineer (React)</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>Fenergo</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>Ireland</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>https://ie.linkedin.com/jobs/view/graduate-software-engineer-react-at-fenergo-4261026118?position=52&amp;pageNum=0&amp;refId=65sS0iKOXA%2FRY21tg1YTdg%3D%3D&amp;trackingId=y3keZ3aLbRHNvXHD%2FBgjXQ%3D%3D</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>LinkedIn</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>Found</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr"/>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>2025-08-01</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Data Scientist -Financial Modeling,</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>Optum</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>Ireland</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>https://ie.linkedin.com/jobs/view/data-scientist-financial-modeling-at-optum-4278935128?position=54&amp;pageNum=0&amp;refId=65sS0iKOXA%2FRY21tg1YTdg%3D%3D&amp;trackingId=cXv7F2wAyfwU3XVyq0eIUQ%3D%3D</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>LinkedIn</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>Found</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr"/>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>2025-08-01</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>AI engineer – Own the project!</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>Archer - The IT Recruitment Consultancy</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>Ireland</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>https://ie.linkedin.com/jobs/view/ai-engineer-%E2%80%93-own-the-project%21-at-archer-the-it-recruitment-consultancy-4275369916?position=56&amp;pageNum=0&amp;refId=65sS0iKOXA%2FRY21tg1YTdg%3D%3D&amp;trackingId=iib62T604oJaMP3%2FdcXRgg%3D%3D</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>LinkedIn</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>Found</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr"/>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>2025-08-01</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Decision Scientist</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>PayPal</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>Ireland</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>https://ie.linkedin.com/jobs/view/decision-scientist-at-paypal-4267461435?position=57&amp;pageNum=0&amp;refId=65sS0iKOXA%2FRY21tg1YTdg%3D%3D&amp;trackingId=6S5dNKIsZrfs%2Fm24Xikkug%3D%3D</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>LinkedIn</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>Found</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr"/>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>2025-08-01</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Machine Learning Engineer - Pricing</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>Sony Interactive Entertainment</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>Ireland</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>https://ie.linkedin.com/jobs/view/machine-learning-engineer-pricing-at-sony-interactive-entertainment-4266453676?position=58&amp;pageNum=0&amp;refId=65sS0iKOXA%2FRY21tg1YTdg%3D%3D&amp;trackingId=YiuNcdcRemdlwez7odY3Nw%3D%3D</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>LinkedIn</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>Found</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr"/>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>2025-08-01</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Machine Learning Engineer</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>PTR Global</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>Ireland</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>https://ie.linkedin.com/jobs/view/machine-learning-engineer-at-ptr-global-4258208117?position=59&amp;pageNum=0&amp;refId=65sS0iKOXA%2FRY21tg1YTdg%3D%3D&amp;trackingId=vP3AOlF5eY5juFWH76wLjA%3D%3D</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>LinkedIn</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>Found</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr"/>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>2025-08-01</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Software Engineer (AI/ML)</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>most</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>Ireland</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>https://ie.linkedin.com/jobs/view/software-engineer-ai-ml-at-most-4264366925?position=60&amp;pageNum=0&amp;refId=65sS0iKOXA%2FRY21tg1YTdg%3D%3D&amp;trackingId=o0xDVXFkA%2BhDt%2FKuk%2BV7%2Fw%3D%3D</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>LinkedIn</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>Found</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr"/>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/job_applications.xlsx
+++ b/data/job_applications.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K115"/>
+  <dimension ref="A1:K139"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5164,6 +5164,990 @@
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
     </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>2025-08-01</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Learning And Development Specialist</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>HR Search</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>Ireland</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>https://ie.linkedin.com/jobs/view/learning-and-development-specialist-at-hr-search-4274767833?position=17&amp;pageNum=0&amp;refId=lcrpfRdD2eF96KfdjLJlfg%3D%3D&amp;trackingId=BZ%2Bez9Aqjsu9XBjSQbiGvQ%3D%3D</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>LinkedIn</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>Found</t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr"/>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>2025-08-01</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Junior Software Engineer</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>EasyGo</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>Ireland</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>https://ie.linkedin.com/jobs/view/junior-software-engineer-at-easygo-4272020386?position=19&amp;pageNum=0&amp;refId=lcrpfRdD2eF96KfdjLJlfg%3D%3D&amp;trackingId=4EH3Y8l%2BVeV%2BR7umY3fWGA%3D%3D</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>LinkedIn</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>Found</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>2025-08-01</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Junior Consultant - Full Training Provided</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>Access Healthcare</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>Ireland</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>https://ie.linkedin.com/jobs/view/junior-consultant-full-training-provided-at-access-healthcare-4278937565?position=22&amp;pageNum=0&amp;refId=lcrpfRdD2eF96KfdjLJlfg%3D%3D&amp;trackingId=JqYvG4XqlMg%2BTYvFlI7j5A%3D%3D</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>LinkedIn</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>Found</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>2025-08-01</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>AI Agent Engineer</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>Naptha AI</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>Ireland</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>https://ie.linkedin.com/jobs/view/ai-agent-engineer-at-naptha-ai-4151315742?position=23&amp;pageNum=0&amp;refId=lcrpfRdD2eF96KfdjLJlfg%3D%3D&amp;trackingId=FBrlxDXuVtKjyBNa2aEoFQ%3D%3D</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>LinkedIn</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>Found</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr"/>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>2025-08-01</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Learning Officer</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>CMS Distribution</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>Ireland</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>https://ie.linkedin.com/jobs/view/learning-officer-at-cms-distribution-4262456050?position=24&amp;pageNum=0&amp;refId=lcrpfRdD2eF96KfdjLJlfg%3D%3D&amp;trackingId=tb4Wl%2FBqzRHBAUTGggTJtA%3D%3D</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>LinkedIn</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>Found</t>
+        </is>
+      </c>
+      <c r="H120" t="inlineStr"/>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>2025-08-01</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Graduate Software Engineer</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>Bending Spoons</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>Ireland</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>https://ie.linkedin.com/jobs/view/graduate-software-engineer-at-bending-spoons-4274308056?position=26&amp;pageNum=0&amp;refId=lcrpfRdD2eF96KfdjLJlfg%3D%3D&amp;trackingId=btW2Hh8BTHGHTO64gpYmqQ%3D%3D</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>LinkedIn</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>Found</t>
+        </is>
+      </c>
+      <c r="H121" t="inlineStr"/>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>2025-08-01</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>Graduate Software Engineer</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>Arista Networks</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>Ireland</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>https://ie.linkedin.com/jobs/view/graduate-software-engineer-at-arista-networks-4270187553?position=32&amp;pageNum=0&amp;refId=lcrpfRdD2eF96KfdjLJlfg%3D%3D&amp;trackingId=b59VjGg4RnjEoIMjey%2BCqw%3D%3D</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>LinkedIn</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>Found</t>
+        </is>
+      </c>
+      <c r="H122" t="inlineStr"/>
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>2025-08-01</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>AI Research Engineer (Fine-tuning)</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>Tether.io</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>Ireland</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>https://ie.linkedin.com/jobs/view/ai-research-engineer-fine-tuning-at-tether-io-4275573854?position=33&amp;pageNum=0&amp;refId=lcrpfRdD2eF96KfdjLJlfg%3D%3D&amp;trackingId=MgTo3kSQH4F8ZlNaHHJOmA%3D%3D</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>LinkedIn</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>Found</t>
+        </is>
+      </c>
+      <c r="H123" t="inlineStr"/>
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>2025-08-01</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>Junior Consultant - Full Training Provided</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>Archer - The IT Recruitment Consultancy</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>Ireland</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>https://ie.linkedin.com/jobs/view/junior-consultant-full-training-provided-at-archer-the-it-recruitment-consultancy-4278573932?position=34&amp;pageNum=0&amp;refId=lcrpfRdD2eF96KfdjLJlfg%3D%3D&amp;trackingId=L6lg9Qj%2FtVSQfV8GtrCL2w%3D%3D</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>LinkedIn</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>Found</t>
+        </is>
+      </c>
+      <c r="H124" t="inlineStr"/>
+      <c r="I124" t="inlineStr"/>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>2025-08-01</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>Graduate Mechanical Engineer - 2025 Graduate Programme</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>Arup</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>Ireland</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>https://ie.linkedin.com/jobs/view/graduate-mechanical-engineer-2025-graduate-programme-at-arup-4265236268?position=35&amp;pageNum=0&amp;refId=lcrpfRdD2eF96KfdjLJlfg%3D%3D&amp;trackingId=FA%2FvSPW4WKXH3QFaZYBOYg%3D%3D</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>LinkedIn</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>Found</t>
+        </is>
+      </c>
+      <c r="H125" t="inlineStr"/>
+      <c r="I125" t="inlineStr"/>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>2025-08-01</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>Talent Acquisition Specialist</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>Intuition</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>Ireland</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>https://ie.linkedin.com/jobs/view/talent-acquisition-specialist-at-intuition-4257407596?position=38&amp;pageNum=0&amp;refId=lcrpfRdD2eF96KfdjLJlfg%3D%3D&amp;trackingId=XQl6v90Stvv6krMOASiGgw%3D%3D</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>LinkedIn</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>Found</t>
+        </is>
+      </c>
+      <c r="H126" t="inlineStr"/>
+      <c r="I126" t="inlineStr"/>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>2025-08-01</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>Graduate Software SRE</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>Fenergo</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>Ireland</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>https://ie.linkedin.com/jobs/view/graduate-software-sre-at-fenergo-4261021979?position=39&amp;pageNum=0&amp;refId=lcrpfRdD2eF96KfdjLJlfg%3D%3D&amp;trackingId=pcFmnVDcxR%2FjNs18grDXkg%3D%3D</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>LinkedIn</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>Found</t>
+        </is>
+      </c>
+      <c r="H127" t="inlineStr"/>
+      <c r="I127" t="inlineStr"/>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>2025-08-01</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>E-Learning Specialist</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>NDT Global</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>Ireland</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>https://ie.linkedin.com/jobs/view/e-learning-specialist-at-ndt-global-4278540944?position=44&amp;pageNum=0&amp;refId=lcrpfRdD2eF96KfdjLJlfg%3D%3D&amp;trackingId=LqD1pKkxLoJyRnYOPpczjQ%3D%3D</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>LinkedIn</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>Found</t>
+        </is>
+      </c>
+      <c r="H128" t="inlineStr"/>
+      <c r="I128" t="inlineStr"/>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>2025-08-01</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>Graduate Software Engineer</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>IC Resources</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>Ireland</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>https://ie.linkedin.com/jobs/view/graduate-software-engineer-at-ic-resources-4278557687?position=45&amp;pageNum=0&amp;refId=lcrpfRdD2eF96KfdjLJlfg%3D%3D&amp;trackingId=%2BM4l5GswMZ2LGg6QaImGQg%3D%3D</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>LinkedIn</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>Found</t>
+        </is>
+      </c>
+      <c r="H129" t="inlineStr"/>
+      <c r="I129" t="inlineStr"/>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>2025-08-01</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>Machine Learning Engineer</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>Signify Health Ireland, part of CVS Health</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>Ireland</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>https://ie.linkedin.com/jobs/view/machine-learning-engineer-at-signify-health-ireland-part-of-cvs-health-4267825534?position=46&amp;pageNum=0&amp;refId=lcrpfRdD2eF96KfdjLJlfg%3D%3D&amp;trackingId=u0xaV0wWvv6GVcHgrJm1tg%3D%3D</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>LinkedIn</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>Found</t>
+        </is>
+      </c>
+      <c r="H130" t="inlineStr"/>
+      <c r="I130" t="inlineStr"/>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>2025-08-01</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>Recruitment Apprenticeship – Earn While You Learn</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>Archer - The IT Recruitment Consultancy</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>Ireland</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>https://ie.linkedin.com/jobs/view/recruitment-apprenticeship-%E2%80%93-earn-while-you-learn-at-archer-the-it-recruitment-consultancy-4275409291?position=47&amp;pageNum=0&amp;refId=lcrpfRdD2eF96KfdjLJlfg%3D%3D&amp;trackingId=HrrUdFBPh6EcKCN1tDLtkw%3D%3D</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>LinkedIn</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>Found</t>
+        </is>
+      </c>
+      <c r="H131" t="inlineStr"/>
+      <c r="I131" t="inlineStr"/>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>2025-08-01</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>Kickstart Your Future ( 2025 Graduate Programme )</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>Rockwell</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>Ireland</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>https://ie.linkedin.com/jobs/view/kickstart-your-future-2025-graduate-programme-at-rockwell-4260969275?position=51&amp;pageNum=0&amp;refId=lcrpfRdD2eF96KfdjLJlfg%3D%3D&amp;trackingId=CdYXSnyzsvdwritfYhmE6A%3D%3D</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>LinkedIn</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>Found</t>
+        </is>
+      </c>
+      <c r="H132" t="inlineStr"/>
+      <c r="I132" t="inlineStr"/>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>2025-08-01</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>AI Research Engineer (Model Evaluation)</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>Tether.io</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>Ireland</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>https://ie.linkedin.com/jobs/view/ai-research-engineer-model-evaluation-at-tether-io-4275573824?position=55&amp;pageNum=0&amp;refId=lcrpfRdD2eF96KfdjLJlfg%3D%3D&amp;trackingId=Um0j1Qm8fnZ5SUFMyXKUKQ%3D%3D</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>LinkedIn</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>Found</t>
+        </is>
+      </c>
+      <c r="H133" t="inlineStr"/>
+      <c r="I133" t="inlineStr"/>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>2025-08-01</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>Software Engineer (Intern)</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>Naptha AI</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>Ireland</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>https://ie.linkedin.com/jobs/view/software-engineer-intern-at-naptha-ai-4151323166?position=56&amp;pageNum=0&amp;refId=lcrpfRdD2eF96KfdjLJlfg%3D%3D&amp;trackingId=lIGizfut3AMiyzje8Wls5Q%3D%3D</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>LinkedIn</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>Found</t>
+        </is>
+      </c>
+      <c r="H134" t="inlineStr"/>
+      <c r="I134" t="inlineStr"/>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>2025-08-01</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>Learning and Development Coordinator</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>Walls Construction Limited</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>Ireland</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>https://ie.linkedin.com/jobs/view/learning-and-development-coordinator-at-walls-construction-limited-4267486069?position=57&amp;pageNum=0&amp;refId=lcrpfRdD2eF96KfdjLJlfg%3D%3D&amp;trackingId=lk8wUFwiJi8ArSs6R2TLQg%3D%3D</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>LinkedIn</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>Found</t>
+        </is>
+      </c>
+      <c r="H135" t="inlineStr"/>
+      <c r="I135" t="inlineStr"/>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>2025-08-01</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>Frontend software engineer (React) - Europe Remote</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>Gr4vy</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>Ireland</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>https://ie.linkedin.com/jobs/view/frontend-software-engineer-react-europe-remote-at-gr4vy-4244847722?position=58&amp;pageNum=0&amp;refId=lcrpfRdD2eF96KfdjLJlfg%3D%3D&amp;trackingId=IfvN%2BiER2QG51SGUcpJ1vg%3D%3D</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>LinkedIn</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>Found</t>
+        </is>
+      </c>
+      <c r="H136" t="inlineStr"/>
+      <c r="I136" t="inlineStr"/>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>2025-08-01</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>Software Engineer</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>Health Innovation Labs</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>Ireland</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>https://ie.linkedin.com/jobs/view/software-engineer-at-health-innovation-labs-4202822948?position=59&amp;pageNum=0&amp;refId=lcrpfRdD2eF96KfdjLJlfg%3D%3D&amp;trackingId=ACqnKPa%2F9GpGFq7aeM%2FmLg%3D%3D</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>LinkedIn</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>Found</t>
+        </is>
+      </c>
+      <c r="H137" t="inlineStr"/>
+      <c r="I137" t="inlineStr"/>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>2025-08-01</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>Software Engineer - Ireland</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>DataVisor</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>Ireland</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>https://ie.linkedin.com/jobs/view/software-engineer-ireland-at-datavisor-4263997335?position=60&amp;pageNum=0&amp;refId=lcrpfRdD2eF96KfdjLJlfg%3D%3D&amp;trackingId=GiKBcJJMCazZWCTG%2BJLYcw%3D%3D</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>LinkedIn</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>Found</t>
+        </is>
+      </c>
+      <c r="H138" t="inlineStr"/>
+      <c r="I138" t="inlineStr"/>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>2025-08-01</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>Software Developer</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>IBM</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>Ireland</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>https://ie.linkedin.com/jobs/view/software-developer-at-ibm-4266984331?position=34&amp;pageNum=0&amp;refId=b25torl0klo5jTdQUTdZuQ%3D%3D&amp;trackingId=VhA2RnBlO8orD3fN1DWtvg%3D%3D</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>LinkedIn</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>Found</t>
+        </is>
+      </c>
+      <c r="H139" t="inlineStr"/>
+      <c r="I139" t="inlineStr"/>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
